--- a/Code/Results/Cases/Case_5_8/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_8/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,844 +409,994 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.13535984399236</v>
+        <v>17.95978430308657</v>
       </c>
       <c r="C2">
-        <v>19.61959879923157</v>
+        <v>11.82516491046106</v>
       </c>
       <c r="D2">
-        <v>4.203124636992404</v>
+        <v>9.967226722836553</v>
       </c>
       <c r="E2">
-        <v>30.17814890435411</v>
+        <v>12.64685381950225</v>
       </c>
       <c r="F2">
-        <v>39.55095050114691</v>
+        <v>63.29491244355373</v>
       </c>
       <c r="I2">
-        <v>24.88792984260979</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>20.27151121163174</v>
+        <v>15.78163571959918</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>16.86679307883541</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.62203628868902</v>
+        <v>16.60913885422819</v>
       </c>
       <c r="C3">
-        <v>18.17345365189936</v>
+        <v>10.95198754346142</v>
       </c>
       <c r="D3">
-        <v>4.208999653331372</v>
+        <v>9.49184194868849</v>
       </c>
       <c r="E3">
-        <v>27.86733163613693</v>
+        <v>11.87277283282573</v>
       </c>
       <c r="F3">
-        <v>37.25606378586863</v>
+        <v>59.41620701708585</v>
       </c>
       <c r="I3">
-        <v>23.8217906948977</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>18.83886317586338</v>
+        <v>14.6291853186119</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>15.65026023897364</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.64886762187653</v>
+        <v>15.74429037258961</v>
       </c>
       <c r="C4">
-        <v>17.24648521461119</v>
+        <v>10.39504717986815</v>
       </c>
       <c r="D4">
-        <v>4.216698693923166</v>
+        <v>9.194740440612046</v>
       </c>
       <c r="E4">
-        <v>26.39630173122195</v>
+        <v>11.38653128608001</v>
       </c>
       <c r="F4">
-        <v>35.83083838155255</v>
+        <v>56.96444372711612</v>
       </c>
       <c r="I4">
-        <v>23.17623746775822</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>17.91895218943593</v>
+        <v>13.89157465348457</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>14.87132380977036</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.24094056117104</v>
+        <v>15.38262610998134</v>
       </c>
       <c r="C5">
-        <v>16.85859143954196</v>
+        <v>10.16262179535079</v>
       </c>
       <c r="D5">
-        <v>4.220753998369744</v>
+        <v>9.072351100281027</v>
       </c>
       <c r="E5">
-        <v>25.78297530957322</v>
+        <v>11.18566420549081</v>
       </c>
       <c r="F5">
-        <v>35.24615776954708</v>
+        <v>55.94768999089248</v>
       </c>
       <c r="I5">
-        <v>22.91544833323962</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>17.53367555295235</v>
+        <v>13.58317918136527</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>14.54559262315745</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.17251083628643</v>
+        <v>15.32200650645136</v>
       </c>
       <c r="C6">
-        <v>16.79356004434887</v>
+        <v>10.12369107467433</v>
       </c>
       <c r="D6">
-        <v>4.221479808109723</v>
+        <v>9.051949093459353</v>
       </c>
       <c r="E6">
-        <v>25.68027493928399</v>
+        <v>11.1521481838096</v>
       </c>
       <c r="F6">
-        <v>35.14884549750448</v>
+        <v>55.77779834057106</v>
       </c>
       <c r="I6">
-        <v>22.87228318911014</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>17.46906454612353</v>
+        <v>13.53149108451369</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>14.49099614797775</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.64341251063129</v>
+        <v>15.73945058450731</v>
       </c>
       <c r="C7">
-        <v>17.24129544258986</v>
+        <v>10.39193504222485</v>
       </c>
       <c r="D7">
-        <v>4.216749806285923</v>
+        <v>9.193095183711783</v>
       </c>
       <c r="E7">
-        <v>26.38808728309667</v>
+        <v>11.3838332489264</v>
       </c>
       <c r="F7">
-        <v>35.82296856742629</v>
+        <v>56.95080266519801</v>
       </c>
       <c r="I7">
-        <v>23.17271110604476</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>17.91379869555523</v>
+        <v>13.88744749618526</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>14.86696485712707</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.6225085247892</v>
+        <v>17.50127271789228</v>
       </c>
       <c r="C8">
-        <v>19.128857457601</v>
+        <v>11.52826145924189</v>
       </c>
       <c r="D8">
-        <v>4.204230164173845</v>
+        <v>9.804383870120633</v>
       </c>
       <c r="E8">
-        <v>29.39172908077469</v>
+        <v>12.38222734580143</v>
       </c>
       <c r="F8">
-        <v>38.76307423745277</v>
+        <v>61.97204793481262</v>
       </c>
       <c r="I8">
-        <v>24.51842617573705</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>19.78570993568482</v>
+        <v>15.3903269223415</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>16.45380031054512</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.16951959797266</v>
+        <v>20.68930466731268</v>
       </c>
       <c r="C9">
-        <v>22.53777507481817</v>
+        <v>13.60368936990612</v>
       </c>
       <c r="D9">
-        <v>4.217910400452857</v>
+        <v>10.96354646929316</v>
       </c>
       <c r="E9">
-        <v>34.90722379496702</v>
+        <v>14.25469252166494</v>
       </c>
       <c r="F9">
-        <v>44.40296388265718</v>
+        <v>71.27345410733126</v>
       </c>
       <c r="I9">
-        <v>27.23305607374823</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>23.15174581779339</v>
+        <v>18.11320463935524</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>19.32559440856185</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.59622249105024</v>
+        <v>22.89356018899798</v>
       </c>
       <c r="C10">
-        <v>24.89192222850221</v>
+        <v>15.05520510308528</v>
       </c>
       <c r="D10">
-        <v>4.260706052559237</v>
+        <v>11.79597358811641</v>
       </c>
       <c r="E10">
-        <v>38.79727038225993</v>
+        <v>15.58506844176412</v>
       </c>
       <c r="F10">
-        <v>48.50773249524647</v>
+        <v>77.81042601257958</v>
       </c>
       <c r="I10">
-        <v>29.2862158842135</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>25.46311212540551</v>
+        <v>19.99934101563868</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>21.31164434715921</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.6679688696973</v>
+        <v>23.87316933822747</v>
       </c>
       <c r="C11">
-        <v>25.93803647460456</v>
+        <v>15.70513135021537</v>
       </c>
       <c r="D11">
-        <v>4.289894676108089</v>
+        <v>12.17236242953663</v>
       </c>
       <c r="E11">
-        <v>40.55088900370288</v>
+        <v>16.22509496768119</v>
       </c>
       <c r="F11">
-        <v>50.48477163536273</v>
+        <v>80.73344530801656</v>
       </c>
       <c r="I11">
-        <v>30.23837523164885</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>26.48625556114127</v>
+        <v>20.8386892675843</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>22.19443341040166</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.06988003104048</v>
+        <v>24.2414958600396</v>
       </c>
       <c r="C12">
-        <v>26.3314239183582</v>
+        <v>15.95031928911263</v>
       </c>
       <c r="D12">
-        <v>4.302614929150971</v>
+        <v>12.31478289588625</v>
       </c>
       <c r="E12">
-        <v>41.21471032936398</v>
+        <v>16.47299880466353</v>
       </c>
       <c r="F12">
-        <v>51.23234188343977</v>
+        <v>81.83461823420967</v>
       </c>
       <c r="I12">
-        <v>30.60222639623759</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>26.870327415578</v>
+        <v>21.1544737130106</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>22.52638470237135</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.98348376200753</v>
+        <v>24.16227460756758</v>
       </c>
       <c r="C13">
-        <v>26.2468084950224</v>
+        <v>15.89754455765513</v>
       </c>
       <c r="D13">
-        <v>4.299796390811894</v>
+        <v>12.28411082640802</v>
       </c>
       <c r="E13">
-        <v>41.07171672606211</v>
+        <v>16.4196811087969</v>
       </c>
       <c r="F13">
-        <v>51.07136192437213</v>
+        <v>81.5976852261763</v>
       </c>
       <c r="I13">
-        <v>30.52370497908328</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>26.78774778502962</v>
+        <v>21.08654414979642</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>22.45498580486521</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.70110875384838</v>
+        <v>23.90352003459019</v>
       </c>
       <c r="C14">
-        <v>25.97045059200515</v>
+        <v>15.72531799367216</v>
       </c>
       <c r="D14">
-        <v>4.290906036495966</v>
+        <v>12.18408017180823</v>
       </c>
       <c r="E14">
-        <v>40.60549310365727</v>
+        <v>16.24552375755909</v>
       </c>
       <c r="F14">
-        <v>50.54628738409911</v>
+        <v>80.82414336925852</v>
       </c>
       <c r="I14">
-        <v>30.26823886641931</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>26.51791638210524</v>
+        <v>20.86470627965381</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>22.22178611558261</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.52765626782405</v>
+        <v>23.74470575939693</v>
       </c>
       <c r="C15">
-        <v>25.8008419342266</v>
+        <v>15.61972254120557</v>
       </c>
       <c r="D15">
-        <v>4.285686432521021</v>
+        <v>12.12280175865405</v>
       </c>
       <c r="E15">
-        <v>40.31995664259927</v>
+        <v>16.13862509211769</v>
       </c>
       <c r="F15">
-        <v>50.22456886970982</v>
+        <v>80.34963694161326</v>
       </c>
       <c r="I15">
-        <v>30.11221082881352</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>26.35222126429104</v>
+        <v>20.72857673503475</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>22.0786604450074</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.52558983786324</v>
+        <v>22.82913160878103</v>
       </c>
       <c r="C16">
-        <v>24.82312283994355</v>
+        <v>15.01256809443985</v>
       </c>
       <c r="D16">
-        <v>4.259015992275115</v>
+        <v>11.77134703494773</v>
       </c>
       <c r="E16">
-        <v>38.68251109732792</v>
+        <v>15.54585854246607</v>
       </c>
       <c r="F16">
-        <v>48.37829308889223</v>
+        <v>77.61850538025624</v>
       </c>
       <c r="I16">
-        <v>29.22440839736473</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>25.39573426495349</v>
+        <v>19.94416284681055</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>21.25358722583015</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.90306357009509</v>
+        <v>22.26198946732367</v>
       </c>
       <c r="C17">
-        <v>24.21749927748512</v>
+        <v>14.63781106513024</v>
       </c>
       <c r="D17">
-        <v>4.245320484487411</v>
+        <v>11.55529262964531</v>
       </c>
       <c r="E17">
-        <v>37.67521968148007</v>
+        <v>15.20149229854374</v>
       </c>
       <c r="F17">
-        <v>47.30550182135222</v>
+        <v>75.93105829421943</v>
       </c>
       <c r="I17">
-        <v>28.68483680000394</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>24.8021645370345</v>
+        <v>19.45857893725812</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>20.74254885433083</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.54192623465955</v>
+        <v>21.93355996385945</v>
       </c>
       <c r="C18">
-        <v>23.86676913351413</v>
+        <v>14.42124448211128</v>
       </c>
       <c r="D18">
-        <v>4.238339386678764</v>
+        <v>11.4307922577625</v>
       </c>
       <c r="E18">
-        <v>37.09420019063162</v>
+        <v>15.00274313580762</v>
       </c>
       <c r="F18">
-        <v>46.69369273885383</v>
+        <v>74.95559578155712</v>
       </c>
       <c r="I18">
-        <v>28.37614713442997</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>24.4580450642267</v>
+        <v>19.17748352123267</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>20.44662303204542</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.41910406360343</v>
+        <v>21.82195827382716</v>
       </c>
       <c r="C19">
-        <v>23.7475850974268</v>
+        <v>14.34772868186704</v>
       </c>
       <c r="D19">
-        <v>4.236122224045136</v>
+        <v>11.38859308492789</v>
       </c>
       <c r="E19">
-        <v>36.89713796212096</v>
+        <v>14.93532451520349</v>
       </c>
       <c r="F19">
-        <v>46.48645471617435</v>
+        <v>74.62444006140619</v>
       </c>
       <c r="I19">
-        <v>28.27189773877137</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>24.34104695339132</v>
+        <v>19.08198303923584</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>20.34606850237084</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.96964641631351</v>
+        <v>22.32258831467182</v>
       </c>
       <c r="C20">
-        <v>24.28221109663763</v>
+        <v>14.67780600958448</v>
       </c>
       <c r="D20">
-        <v>4.246683850774234</v>
+        <v>11.57831456372995</v>
       </c>
       <c r="E20">
-        <v>37.78260514039989</v>
+        <v>15.23821872902187</v>
       </c>
       <c r="F20">
-        <v>47.41869823053568</v>
+        <v>76.11118565292334</v>
       </c>
       <c r="I20">
-        <v>28.74209936105002</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>24.86562730522038</v>
+        <v>19.51045235070102</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>20.79715153225228</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.78414973638361</v>
+        <v>23.97958769892626</v>
       </c>
       <c r="C21">
-        <v>26.05169097615066</v>
+        <v>15.77592512896251</v>
       </c>
       <c r="D21">
-        <v>4.293469695038132</v>
+        <v>12.21346252576198</v>
       </c>
       <c r="E21">
-        <v>40.7424217461601</v>
+        <v>16.29672337340667</v>
       </c>
       <c r="F21">
-        <v>50.70053134929883</v>
+        <v>81.05149166772608</v>
       </c>
       <c r="I21">
-        <v>30.34317964763744</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>26.5972575459984</v>
+        <v>20.92991571238599</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>22.29034042189274</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.9475245964091</v>
+        <v>25.04762941543096</v>
       </c>
       <c r="C22">
-        <v>27.19261544357591</v>
+        <v>16.48856941125048</v>
       </c>
       <c r="D22">
-        <v>4.333930237319923</v>
+        <v>12.62807748751117</v>
       </c>
       <c r="E22">
-        <v>42.67681176464255</v>
+        <v>17.01546117732983</v>
       </c>
       <c r="F22">
-        <v>52.8762019100366</v>
+        <v>84.24803596264304</v>
       </c>
       <c r="I22">
-        <v>31.40924250481775</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>27.70977582317508</v>
+        <v>21.84600388930952</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>23.25296555888566</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.32840086344193</v>
+        <v>24.47869234250497</v>
       </c>
       <c r="C23">
-        <v>26.58478644088892</v>
+        <v>16.10846018842128</v>
       </c>
       <c r="D23">
-        <v>4.311327902155241</v>
+        <v>12.40674531420969</v>
       </c>
       <c r="E23">
-        <v>41.64357189910923</v>
+        <v>16.63262884887673</v>
       </c>
       <c r="F23">
-        <v>51.71494545660777</v>
+        <v>82.5442922131755</v>
       </c>
       <c r="I23">
-        <v>30.83817831109832</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>27.11748783274839</v>
+        <v>21.35789261257061</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>22.74016491906075</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.93955444951269</v>
+        <v>22.29519901405092</v>
       </c>
       <c r="C24">
-        <v>24.25296288200894</v>
+        <v>14.65972780525111</v>
       </c>
       <c r="D24">
-        <v>4.246064712163925</v>
+        <v>11.56790725926804</v>
       </c>
       <c r="E24">
-        <v>37.73406228558641</v>
+        <v>15.22161712769272</v>
       </c>
       <c r="F24">
-        <v>47.36752415769845</v>
+        <v>76.02976677833514</v>
       </c>
       <c r="I24">
-        <v>28.71620627927933</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>24.83694477276802</v>
+        <v>19.48700642711258</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>20.77247231991795</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.24342475631762</v>
+        <v>19.85310594093542</v>
       </c>
       <c r="C25">
-        <v>21.64427358616519</v>
+        <v>13.05673137901642</v>
       </c>
       <c r="D25">
-        <v>4.209231828912898</v>
+        <v>10.65382197188207</v>
       </c>
       <c r="E25">
-        <v>33.44913284613047</v>
+        <v>13.75682634044415</v>
       </c>
       <c r="F25">
-        <v>42.8894817408563</v>
+        <v>68.81286434998633</v>
       </c>
       <c r="I25">
-        <v>26.48968339694391</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>22.2715141657136</v>
+        <v>17.39849583282236</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
+        <v>18.57227908729072</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_8/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_8/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.95978430308657</v>
+        <v>14.2192071421998</v>
       </c>
       <c r="C2">
-        <v>11.82516491046106</v>
+        <v>8.407551725677509</v>
       </c>
       <c r="D2">
-        <v>9.967226722836553</v>
+        <v>4.53401733698358</v>
       </c>
       <c r="E2">
-        <v>12.64685381950225</v>
+        <v>29.49472624401808</v>
       </c>
       <c r="F2">
-        <v>63.29491244355373</v>
+        <v>19.32879161716702</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,19 +442,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>15.78163571959918</v>
+        <v>12.80591899590204</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.86679307883541</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>15.3840854840678</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,19 +462,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.60913885422819</v>
+        <v>13.30513556517449</v>
       </c>
       <c r="C3">
-        <v>10.95198754346142</v>
+        <v>8.042540645066437</v>
       </c>
       <c r="D3">
-        <v>9.49184194868849</v>
+        <v>4.427146311812248</v>
       </c>
       <c r="E3">
-        <v>11.87277283282573</v>
+        <v>27.35761363206432</v>
       </c>
       <c r="F3">
-        <v>59.41620701708585</v>
+        <v>18.88533349280902</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -483,19 +483,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>14.6291853186119</v>
+        <v>12.0931417149639</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.65026023897364</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>15.28510591533714</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,19 +503,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.74429037258961</v>
+        <v>12.7126455173043</v>
       </c>
       <c r="C4">
-        <v>10.39504717986815</v>
+        <v>7.810054773990078</v>
       </c>
       <c r="D4">
-        <v>9.194740440612046</v>
+        <v>4.359701252850224</v>
       </c>
       <c r="E4">
-        <v>11.38653128608001</v>
+        <v>25.98241889044705</v>
       </c>
       <c r="F4">
-        <v>56.96444372711612</v>
+        <v>18.6306171521151</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -524,19 +524,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.89157465348457</v>
+        <v>11.63413850295069</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.87132380977036</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>15.24166689898338</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,19 +544,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.38262610998134</v>
+        <v>12.4633190321086</v>
       </c>
       <c r="C5">
-        <v>10.16262179535079</v>
+        <v>7.713276266191533</v>
       </c>
       <c r="D5">
-        <v>9.072351100281027</v>
+        <v>4.331781933921923</v>
       </c>
       <c r="E5">
-        <v>11.18566420549081</v>
+        <v>25.40586605293851</v>
       </c>
       <c r="F5">
-        <v>55.94768999089248</v>
+        <v>18.53122681844814</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.58317918136527</v>
+        <v>11.44177606205547</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.54559262315745</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>15.2281359173886</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,19 +585,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.32200650645136</v>
+        <v>12.42144198364855</v>
       </c>
       <c r="C6">
-        <v>10.12369107467433</v>
+        <v>7.697085309580054</v>
       </c>
       <c r="D6">
-        <v>9.051949093459353</v>
+        <v>4.32712042437973</v>
       </c>
       <c r="E6">
-        <v>11.1521481838096</v>
+        <v>25.30914581244677</v>
       </c>
       <c r="F6">
-        <v>55.77779834057106</v>
+        <v>18.51498883269061</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -606,19 +606,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.53149108451369</v>
+        <v>11.40951543571553</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.49099614797775</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>15.22613541118813</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,19 +626,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.73945058450731</v>
+        <v>12.70931495252376</v>
       </c>
       <c r="C7">
-        <v>10.39193504222485</v>
+        <v>7.808757743486318</v>
       </c>
       <c r="D7">
-        <v>9.193095183711783</v>
+        <v>4.359326450904532</v>
       </c>
       <c r="E7">
-        <v>11.3838332489264</v>
+        <v>25.97470908219672</v>
       </c>
       <c r="F7">
-        <v>56.95080266519801</v>
+        <v>18.62925891202857</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -647,19 +647,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.88744749618526</v>
+        <v>11.63156566786605</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.86696485712707</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>15.2414677805597</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,19 +667,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.50127271789228</v>
+        <v>13.9105023519387</v>
       </c>
       <c r="C8">
-        <v>11.52826145924189</v>
+        <v>8.283467874478816</v>
       </c>
       <c r="D8">
-        <v>9.804383870120633</v>
+        <v>4.497561165151978</v>
       </c>
       <c r="E8">
-        <v>12.38222734580143</v>
+        <v>28.77073371956419</v>
       </c>
       <c r="F8">
-        <v>61.97204793481262</v>
+        <v>19.17223954249559</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -688,19 +688,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>15.3903269223415</v>
+        <v>12.56461235268027</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.45380031054512</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>15.34624794262037</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,19 +708,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.68930466731268</v>
+        <v>16.01973790865353</v>
       </c>
       <c r="C9">
-        <v>13.60368936990612</v>
+        <v>9.14576140402068</v>
       </c>
       <c r="D9">
-        <v>10.96354646929316</v>
+        <v>4.753173975680077</v>
       </c>
       <c r="E9">
-        <v>14.25469252166494</v>
+        <v>33.76883585697858</v>
       </c>
       <c r="F9">
-        <v>71.27345410733126</v>
+        <v>20.37629323313789</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -729,19 +729,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>18.11320463935524</v>
+        <v>14.22346428552391</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>19.32559440856185</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>15.69737945020621</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,19 +749,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.89356018899798</v>
+        <v>17.42215747942382</v>
       </c>
       <c r="C10">
-        <v>15.05520510308528</v>
+        <v>9.735358898434058</v>
       </c>
       <c r="D10">
-        <v>11.79597358811641</v>
+        <v>4.930353779446233</v>
       </c>
       <c r="E10">
-        <v>15.58506844176412</v>
+        <v>37.16804841958298</v>
       </c>
       <c r="F10">
-        <v>77.81042601257958</v>
+        <v>21.34534035595629</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -770,19 +770,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>19.99934101563868</v>
+        <v>15.33742992930396</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>21.31164434715921</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>16.0548054605278</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,19 +790,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.87316933822747</v>
+        <v>18.02897312218362</v>
       </c>
       <c r="C11">
-        <v>15.70513135021537</v>
+        <v>9.993825265524007</v>
       </c>
       <c r="D11">
-        <v>12.17236242953663</v>
+        <v>5.008431976176331</v>
       </c>
       <c r="E11">
-        <v>16.22509496768119</v>
+        <v>38.66082010256954</v>
       </c>
       <c r="F11">
-        <v>80.73344530801656</v>
+        <v>21.80443731917893</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -811,19 +811,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>20.8386892675843</v>
+        <v>15.82161493514816</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>22.19443341040166</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>16.24116397814489</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,19 +831,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.2414958600396</v>
+        <v>18.25435262702272</v>
       </c>
       <c r="C12">
-        <v>15.95031928911263</v>
+        <v>10.09029336811056</v>
       </c>
       <c r="D12">
-        <v>12.31478289588625</v>
+        <v>5.037619154419946</v>
       </c>
       <c r="E12">
-        <v>16.47299880466353</v>
+        <v>39.21891995466435</v>
       </c>
       <c r="F12">
-        <v>81.83461823420967</v>
+        <v>21.98091542420278</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -852,19 +852,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>21.1544737130106</v>
+        <v>16.00174808186335</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22.52638470237135</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>16.31532112418669</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,19 +872,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.16227460756758</v>
+        <v>18.20600796359706</v>
       </c>
       <c r="C13">
-        <v>15.89754455765513</v>
+        <v>10.06957983078525</v>
       </c>
       <c r="D13">
-        <v>12.28411082640802</v>
+        <v>5.031350295685045</v>
       </c>
       <c r="E13">
-        <v>16.4196811087969</v>
+        <v>39.09903360651411</v>
       </c>
       <c r="F13">
-        <v>81.5976852261763</v>
+        <v>21.94279064939393</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -893,19 +893,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>21.08654414979642</v>
+        <v>15.96309570857656</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>22.45498580486521</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>16.29918782805655</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,19 +913,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.90352003459019</v>
+        <v>18.04760314436984</v>
       </c>
       <c r="C14">
-        <v>15.72531799367216</v>
+        <v>10.00178996389581</v>
       </c>
       <c r="D14">
-        <v>12.18408017180823</v>
+        <v>5.010840916125763</v>
       </c>
       <c r="E14">
-        <v>16.24552375755909</v>
+        <v>38.70687603241068</v>
       </c>
       <c r="F14">
-        <v>80.82414336925852</v>
+        <v>21.81890355158642</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -934,19 +934,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>20.86470627965381</v>
+        <v>15.83649887579719</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>22.22178611558261</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>16.24719207178836</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,19 +954,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.74470575939693</v>
+        <v>17.95000376353468</v>
       </c>
       <c r="C15">
-        <v>15.61972254120557</v>
+        <v>9.960083395884832</v>
       </c>
       <c r="D15">
-        <v>12.12280175865405</v>
+        <v>4.998228455990593</v>
       </c>
       <c r="E15">
-        <v>16.13862509211769</v>
+        <v>38.46574951684461</v>
       </c>
       <c r="F15">
-        <v>80.34963694161326</v>
+        <v>21.74336164930946</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -975,19 +975,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>20.72857673503475</v>
+        <v>15.75853670185503</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22.0786604450074</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>16.21581533897474</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,19 +995,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.82913160878103</v>
+        <v>17.38187969813767</v>
       </c>
       <c r="C16">
-        <v>15.01256809443985</v>
+        <v>9.718270671167847</v>
       </c>
       <c r="D16">
-        <v>11.77134703494773</v>
+        <v>4.925198979680527</v>
       </c>
       <c r="E16">
-        <v>15.54585854246607</v>
+        <v>37.06945788973214</v>
       </c>
       <c r="F16">
-        <v>77.61850538025624</v>
+        <v>21.31570469349658</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1016,19 +1016,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>19.94416284681055</v>
+        <v>15.30533533341339</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>21.25358722583015</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>16.04311927364411</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,19 +1036,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.26198946732367</v>
+        <v>17.02542337292932</v>
       </c>
       <c r="C17">
-        <v>14.63781106513024</v>
+        <v>9.567423035634686</v>
       </c>
       <c r="D17">
-        <v>11.55529262964531</v>
+        <v>4.879739523298856</v>
       </c>
       <c r="E17">
-        <v>15.20149229854374</v>
+        <v>36.19951549422066</v>
       </c>
       <c r="F17">
-        <v>75.93105829421943</v>
+        <v>21.05802704461185</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1057,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>19.45857893725812</v>
+        <v>15.02154759348056</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>20.74254885433083</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>15.94338417002358</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,19 +1077,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.93355996385945</v>
+        <v>16.81746219875048</v>
       </c>
       <c r="C18">
-        <v>14.42124448211128</v>
+        <v>9.479742012536953</v>
       </c>
       <c r="D18">
-        <v>11.4307922577625</v>
+        <v>4.853355988218</v>
       </c>
       <c r="E18">
-        <v>15.00274313580762</v>
+        <v>35.6940732519527</v>
       </c>
       <c r="F18">
-        <v>74.95559578155712</v>
+        <v>20.91153687032384</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1098,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>19.17748352123267</v>
+        <v>14.85619418810234</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>20.44662303204542</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>15.88824600925365</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,19 +1118,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.82195827382716</v>
+        <v>16.74654365803885</v>
       </c>
       <c r="C19">
-        <v>14.34772868186704</v>
+        <v>9.449897502159402</v>
       </c>
       <c r="D19">
-        <v>11.38859308492789</v>
+        <v>4.844382897459619</v>
       </c>
       <c r="E19">
-        <v>14.93532451520349</v>
+        <v>35.52205275093723</v>
       </c>
       <c r="F19">
-        <v>74.62444006140619</v>
+        <v>20.86223330168232</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1139,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>19.08198303923584</v>
+        <v>14.79984254981398</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>20.34606850237084</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>15.86995440883405</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,19 +1159,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.32258831467182</v>
+        <v>17.0636722269315</v>
       </c>
       <c r="C20">
-        <v>14.67780600958448</v>
+        <v>9.583576053160922</v>
       </c>
       <c r="D20">
-        <v>11.57831456372995</v>
+        <v>4.884603358140478</v>
       </c>
       <c r="E20">
-        <v>15.23821872902187</v>
+        <v>36.29264394516629</v>
       </c>
       <c r="F20">
-        <v>76.11118565292334</v>
+        <v>21.08527938315049</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>19.51045235070102</v>
+        <v>15.05197717614028</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>20.79715153225228</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>15.95376943343789</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,19 +1200,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.97958769892626</v>
+        <v>18.09424951519871</v>
       </c>
       <c r="C21">
-        <v>15.77592512896251</v>
+        <v>10.02173969162772</v>
       </c>
       <c r="D21">
-        <v>12.21346252576198</v>
+        <v>5.016875439397607</v>
       </c>
       <c r="E21">
-        <v>16.29672337340667</v>
+        <v>38.82225265728623</v>
       </c>
       <c r="F21">
-        <v>81.05149166772608</v>
+        <v>21.85522079063665</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1221,19 +1221,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>20.92991571238599</v>
+        <v>15.87377047086176</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22.29034042189274</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>16.26236578545594</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,19 +1241,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.04762941543096</v>
+        <v>18.74213460368735</v>
       </c>
       <c r="C22">
-        <v>16.48856941125048</v>
+        <v>10.29990495312663</v>
       </c>
       <c r="D22">
-        <v>12.62807748751117</v>
+        <v>5.101105028892008</v>
       </c>
       <c r="E22">
-        <v>17.01546117732983</v>
+        <v>40.43393090339553</v>
       </c>
       <c r="F22">
-        <v>84.24803596264304</v>
+        <v>22.37375270426615</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1262,19 +1262,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>21.84600388930952</v>
+        <v>16.39212865624365</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>23.25296555888566</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>16.48503832982761</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,19 +1282,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.47869234250497</v>
+        <v>18.39866809962445</v>
       </c>
       <c r="C23">
-        <v>16.10846018842128</v>
+        <v>10.15219276040666</v>
       </c>
       <c r="D23">
-        <v>12.40674531420969</v>
+        <v>5.056358206408658</v>
       </c>
       <c r="E23">
-        <v>16.63262884887673</v>
+        <v>39.57736373528364</v>
       </c>
       <c r="F23">
-        <v>82.5442922131755</v>
+        <v>22.09559527312884</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1303,19 +1303,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>21.35789261257061</v>
+        <v>16.11717291444834</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>22.74016491906075</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>16.36421774588873</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,19 +1323,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.29519901405092</v>
+        <v>17.04638936211641</v>
       </c>
       <c r="C24">
-        <v>14.65972780525111</v>
+        <v>9.576276253273685</v>
       </c>
       <c r="D24">
-        <v>11.56790725926804</v>
+        <v>4.882405190489907</v>
       </c>
       <c r="E24">
-        <v>15.22161712769272</v>
+        <v>36.25055712169604</v>
       </c>
       <c r="F24">
-        <v>76.02976677833514</v>
+        <v>21.0729534546466</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1344,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>19.48700642711258</v>
+        <v>15.03822681642412</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>20.77247231991795</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>15.94906741349109</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.85310594093542</v>
+        <v>15.47523086482318</v>
       </c>
       <c r="C25">
-        <v>13.05673137901642</v>
+        <v>8.920093529360113</v>
       </c>
       <c r="D25">
-        <v>10.65382197188207</v>
+        <v>4.685808897707638</v>
       </c>
       <c r="E25">
-        <v>13.75682634044415</v>
+        <v>32.46640447453707</v>
       </c>
       <c r="F25">
-        <v>68.81286434998633</v>
+        <v>20.03569200724039</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>17.39849583282236</v>
+        <v>13.79311541738581</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.57227908729072</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>15.58567175371791</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_8/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_8/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.2192071421998</v>
+        <v>9.51648072919072</v>
       </c>
       <c r="C2">
-        <v>8.407551725677509</v>
+        <v>6.145569675762306</v>
       </c>
       <c r="D2">
-        <v>4.53401733698358</v>
+        <v>4.836593880964283</v>
       </c>
       <c r="E2">
-        <v>29.49472624401808</v>
+        <v>16.45662231652857</v>
       </c>
       <c r="F2">
-        <v>19.32879161716702</v>
+        <v>24.34937062023393</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.80591899590204</v>
+        <v>8.667571513691255</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>15.3840854840678</v>
+        <v>21.75015368155667</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,19 +462,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.30513556517449</v>
+        <v>9.17027533169408</v>
       </c>
       <c r="C3">
-        <v>8.042540645066437</v>
+        <v>5.978901922792356</v>
       </c>
       <c r="D3">
-        <v>4.427146311812248</v>
+        <v>4.795374274760977</v>
       </c>
       <c r="E3">
-        <v>27.35761363206432</v>
+        <v>15.52626842187457</v>
       </c>
       <c r="F3">
-        <v>18.88533349280902</v>
+        <v>24.35783602768995</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -483,7 +483,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.0931417149639</v>
+        <v>8.417167355826217</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>15.28510591533714</v>
+        <v>21.81322534259327</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,19 +503,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.7126455173043</v>
+        <v>8.952472728208928</v>
       </c>
       <c r="C4">
-        <v>7.810054773990078</v>
+        <v>5.873289745481984</v>
       </c>
       <c r="D4">
-        <v>4.359701252850224</v>
+        <v>4.769532975394966</v>
       </c>
       <c r="E4">
-        <v>25.98241889044705</v>
+        <v>14.93045656831966</v>
       </c>
       <c r="F4">
-        <v>18.6306171521151</v>
+        <v>24.37059821565621</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -524,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.63413850295069</v>
+        <v>8.260876708963771</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.24166689898338</v>
+        <v>21.85763764166031</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,19 +544,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.4633190321086</v>
+        <v>8.862542160691657</v>
       </c>
       <c r="C5">
-        <v>7.713276266191533</v>
+        <v>5.829467662113198</v>
       </c>
       <c r="D5">
-        <v>4.331781933921923</v>
+        <v>4.758873257366198</v>
       </c>
       <c r="E5">
-        <v>25.40586605293851</v>
+        <v>14.68175075304581</v>
       </c>
       <c r="F5">
-        <v>18.53122681844814</v>
+        <v>24.37769639679664</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.44177606205547</v>
+        <v>8.196645470465526</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.2281359173886</v>
+        <v>21.87715984649077</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,19 +585,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.42144198364855</v>
+        <v>8.847542731773315</v>
       </c>
       <c r="C6">
-        <v>7.697085309580054</v>
+        <v>5.822144897733559</v>
       </c>
       <c r="D6">
-        <v>4.32712042437973</v>
+        <v>4.757095554917283</v>
       </c>
       <c r="E6">
-        <v>25.30914581244677</v>
+        <v>14.64010549543998</v>
       </c>
       <c r="F6">
-        <v>18.51498883269061</v>
+        <v>24.37898948570619</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -606,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.40951543571553</v>
+        <v>8.185950188363185</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.22613541118813</v>
+        <v>21.88048730981578</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,19 +626,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.70931495252376</v>
+        <v>8.951264450970392</v>
       </c>
       <c r="C7">
-        <v>7.808757743486318</v>
+        <v>5.872701865985945</v>
       </c>
       <c r="D7">
-        <v>4.359326450904532</v>
+        <v>4.769389731554663</v>
       </c>
       <c r="E7">
-        <v>25.97470908219672</v>
+        <v>14.92712595775057</v>
       </c>
       <c r="F7">
-        <v>18.62925891202857</v>
+        <v>24.37068626856873</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -647,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.63156566786605</v>
+        <v>8.260012523168491</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.2414677805597</v>
+        <v>21.85789516805773</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,19 +667,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.9105023519387</v>
+        <v>9.398275280444068</v>
       </c>
       <c r="C8">
-        <v>8.283467874478816</v>
+        <v>6.088805846639046</v>
       </c>
       <c r="D8">
-        <v>4.497561165151978</v>
+        <v>4.822494617429653</v>
       </c>
       <c r="E8">
-        <v>28.77073371956419</v>
+        <v>16.141082836171</v>
       </c>
       <c r="F8">
-        <v>19.17223954249559</v>
+        <v>24.35071711371996</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.56461235268027</v>
+        <v>8.581816195715877</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>15.34624794262037</v>
+        <v>21.77071714308919</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,19 +708,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.01973790865353</v>
+        <v>10.22784338344551</v>
       </c>
       <c r="C9">
-        <v>9.14576140402068</v>
+        <v>6.48498629271159</v>
       </c>
       <c r="D9">
-        <v>4.753173975680077</v>
+        <v>4.922209317477546</v>
       </c>
       <c r="E9">
-        <v>33.76883585697858</v>
+        <v>18.38985695548248</v>
       </c>
       <c r="F9">
-        <v>20.37629323313789</v>
+        <v>24.37172484707983</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -729,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.22346428552391</v>
+        <v>9.188751054253776</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.69737945020621</v>
+        <v>21.64513309329778</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,19 +749,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.42215747942382</v>
+        <v>10.80220830364153</v>
       </c>
       <c r="C10">
-        <v>9.735358898434058</v>
+        <v>6.75732003889713</v>
       </c>
       <c r="D10">
-        <v>4.930353779446233</v>
+        <v>4.992511965249267</v>
       </c>
       <c r="E10">
-        <v>37.16804841958298</v>
+        <v>20.02410079230791</v>
       </c>
       <c r="F10">
-        <v>21.34534035595629</v>
+        <v>24.42395079512913</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.33742992930396</v>
+        <v>9.643766359580628</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.0548054605278</v>
+        <v>21.58085853345176</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,19 +790,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.02897312218362</v>
+        <v>11.05475985586905</v>
       </c>
       <c r="C11">
-        <v>9.993825265524007</v>
+        <v>6.876796906513307</v>
       </c>
       <c r="D11">
-        <v>5.008431976176331</v>
+        <v>5.023798682573288</v>
       </c>
       <c r="E11">
-        <v>38.66082010256954</v>
+        <v>20.72552826646207</v>
       </c>
       <c r="F11">
-        <v>21.80443731917893</v>
+        <v>24.45569190830027</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -811,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.82161493514816</v>
+        <v>9.886044951325806</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.24116397814489</v>
+        <v>21.5577610032522</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,19 +831,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.25435262702272</v>
+        <v>11.14906124350819</v>
       </c>
       <c r="C12">
-        <v>10.09029336811056</v>
+        <v>6.921380482161253</v>
       </c>
       <c r="D12">
-        <v>5.037619154419946</v>
+        <v>5.035541896473295</v>
       </c>
       <c r="E12">
-        <v>39.21891995466435</v>
+        <v>20.98513751507764</v>
       </c>
       <c r="F12">
-        <v>21.98091542420278</v>
+        <v>24.46885627261076</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -852,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>16.00174808186335</v>
+        <v>9.976025520641688</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.31532112418669</v>
+        <v>21.54990236830036</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,19 +872,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.20600796359706</v>
+        <v>11.12881225169541</v>
       </c>
       <c r="C13">
-        <v>10.06957983078525</v>
+        <v>6.911808333974815</v>
       </c>
       <c r="D13">
-        <v>5.031350295685045</v>
+        <v>5.03301749902724</v>
       </c>
       <c r="E13">
-        <v>39.09903360651411</v>
+        <v>20.9294926158722</v>
       </c>
       <c r="F13">
-        <v>21.94279064939393</v>
+        <v>24.46597024946929</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -893,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.96309570857656</v>
+        <v>9.956725541476937</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.29918782805655</v>
+        <v>21.55155530436764</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,19 +913,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.04760314436984</v>
+        <v>11.06254524801405</v>
       </c>
       <c r="C14">
-        <v>10.00178996389581</v>
+        <v>6.880478183748684</v>
       </c>
       <c r="D14">
-        <v>5.010840916125763</v>
+        <v>5.024766921545897</v>
       </c>
       <c r="E14">
-        <v>38.70687603241068</v>
+        <v>20.74700665777481</v>
       </c>
       <c r="F14">
-        <v>21.81890355158642</v>
+        <v>24.4567520314513</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>15.83649887579719</v>
+        <v>9.893483242851289</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.24719207178836</v>
+        <v>21.5570966477958</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,19 +954,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.95000376353468</v>
+        <v>11.02177884345361</v>
       </c>
       <c r="C15">
-        <v>9.960083395884832</v>
+        <v>6.861200929279645</v>
       </c>
       <c r="D15">
-        <v>4.998228455990593</v>
+        <v>5.01969947739841</v>
       </c>
       <c r="E15">
-        <v>38.46574951684461</v>
+        <v>20.63444754702559</v>
       </c>
       <c r="F15">
-        <v>21.74336164930946</v>
+        <v>24.45125455560755</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>15.75853670185503</v>
+        <v>9.854514801772382</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>16.21581533897474</v>
+        <v>21.56060664662012</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,19 +995,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.38187969813767</v>
+        <v>10.78552080502791</v>
       </c>
       <c r="C16">
-        <v>9.718270671167847</v>
+        <v>6.74942096482035</v>
       </c>
       <c r="D16">
-        <v>4.925198979680527</v>
+        <v>4.990452942181032</v>
       </c>
       <c r="E16">
-        <v>37.06945788973214</v>
+        <v>19.97741858707068</v>
       </c>
       <c r="F16">
-        <v>21.31570469349658</v>
+        <v>24.42203683650296</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1016,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.30533533341339</v>
+        <v>9.627687477329436</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>16.04311927364411</v>
+        <v>21.5824920080865</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,19 +1036,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.02542337292932</v>
+        <v>10.63828866698727</v>
       </c>
       <c r="C17">
-        <v>9.567423035634686</v>
+        <v>6.679699166830932</v>
       </c>
       <c r="D17">
-        <v>4.879739523298856</v>
+        <v>4.972330040193686</v>
       </c>
       <c r="E17">
-        <v>36.19951549422066</v>
+        <v>19.56361952687138</v>
       </c>
       <c r="F17">
-        <v>21.05802704461185</v>
+        <v>24.40615556839093</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.02154759348056</v>
+        <v>9.492996367106688</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>15.94338417002358</v>
+        <v>21.59749443083587</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,19 +1077,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.81746219875048</v>
+        <v>10.55278697203531</v>
       </c>
       <c r="C18">
-        <v>9.479742012536953</v>
+        <v>6.639183387809893</v>
       </c>
       <c r="D18">
-        <v>4.853355988218</v>
+        <v>4.961841139402024</v>
       </c>
       <c r="E18">
-        <v>35.6940732519527</v>
+        <v>19.32165820945405</v>
       </c>
       <c r="F18">
-        <v>20.91153687032384</v>
+        <v>24.39777280098755</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.85619418810234</v>
+        <v>9.429424487323349</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>15.88824600925365</v>
+        <v>21.60670121248881</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,19 +1118,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.74654365803885</v>
+        <v>10.52369971070441</v>
       </c>
       <c r="C19">
-        <v>9.449897502159402</v>
+        <v>6.625395223770196</v>
       </c>
       <c r="D19">
-        <v>4.844382897459619</v>
+        <v>4.958278739483635</v>
       </c>
       <c r="E19">
-        <v>35.52205275093723</v>
+        <v>19.23905396751062</v>
       </c>
       <c r="F19">
-        <v>20.86223330168232</v>
+        <v>24.39506372327378</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.79984254981398</v>
+        <v>9.407820200038328</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>15.86995440883405</v>
+        <v>21.60991755345162</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,19 +1159,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.0636722269315</v>
+        <v>10.65404700959027</v>
       </c>
       <c r="C20">
-        <v>9.583576053160922</v>
+        <v>6.687164176477673</v>
       </c>
       <c r="D20">
-        <v>4.884603358140478</v>
+        <v>4.9742660235742</v>
       </c>
       <c r="E20">
-        <v>36.29264394516629</v>
+        <v>19.60807823426329</v>
       </c>
       <c r="F20">
-        <v>21.08527938315049</v>
+        <v>24.40776837536794</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.05197717614028</v>
+        <v>9.504723621468585</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>15.95376943343789</v>
+        <v>21.59583756276146</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,19 +1200,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.09424951519871</v>
+        <v>11.08204626844021</v>
       </c>
       <c r="C21">
-        <v>10.02173969162772</v>
+        <v>6.88969870471875</v>
       </c>
       <c r="D21">
-        <v>5.016875439397607</v>
+        <v>5.027193184833818</v>
       </c>
       <c r="E21">
-        <v>38.82225265728623</v>
+        <v>20.80076994803954</v>
       </c>
       <c r="F21">
-        <v>21.85522079063665</v>
+        <v>24.45942861275861</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.87377047086176</v>
+        <v>9.912107166817583</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>16.26236578545594</v>
+        <v>21.55544488738953</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,19 +1241,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.74213460368735</v>
+        <v>11.35396088979236</v>
       </c>
       <c r="C22">
-        <v>10.29990495312663</v>
+        <v>7.018211269704115</v>
       </c>
       <c r="D22">
-        <v>5.101105028892008</v>
+        <v>5.061173671832623</v>
       </c>
       <c r="E22">
-        <v>40.43393090339553</v>
+        <v>21.54526994555979</v>
       </c>
       <c r="F22">
-        <v>22.37375270426615</v>
+        <v>24.49986109966872</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16.39212865624365</v>
+        <v>10.17069553988705</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16.48503832982761</v>
+        <v>21.5342232299846</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,19 +1282,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.39866809962445</v>
+        <v>11.20957287717492</v>
       </c>
       <c r="C23">
-        <v>10.15219276040666</v>
+        <v>6.949982286850164</v>
       </c>
       <c r="D23">
-        <v>5.056358206408658</v>
+        <v>5.043094976288632</v>
       </c>
       <c r="E23">
-        <v>39.57736373528364</v>
+        <v>21.15110724077332</v>
       </c>
       <c r="F23">
-        <v>22.09559527312884</v>
+        <v>24.47767274343278</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16.11717291444834</v>
+        <v>10.03363346111813</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.36421774588873</v>
+        <v>21.54507442634607</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,19 +1323,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.04638936211641</v>
+        <v>10.6469253229613</v>
       </c>
       <c r="C24">
-        <v>9.576276253273685</v>
+        <v>6.683790588622301</v>
       </c>
       <c r="D24">
-        <v>4.882405190489907</v>
+        <v>4.97339098253647</v>
       </c>
       <c r="E24">
-        <v>36.25055712169604</v>
+        <v>19.58799111030701</v>
       </c>
       <c r="F24">
-        <v>21.0729534546466</v>
+        <v>24.40703689632963</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.03822681642412</v>
+        <v>9.499423301351637</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>15.94906741349109</v>
+        <v>21.59658482115928</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.47523086482318</v>
+        <v>10.0091726872347</v>
       </c>
       <c r="C25">
-        <v>8.920093529360113</v>
+        <v>6.380973029697469</v>
       </c>
       <c r="D25">
-        <v>4.685808897707638</v>
+        <v>4.895734711069881</v>
       </c>
       <c r="E25">
-        <v>32.46640447453707</v>
+        <v>17.75155183517432</v>
       </c>
       <c r="F25">
-        <v>20.03569200724039</v>
+        <v>24.35958298269789</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.79311541738581</v>
+        <v>9.027665718823757</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.58567175371791</v>
+        <v>21.67421395518986</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_8/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_8/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.51648072919072</v>
+        <v>14.21920714219969</v>
       </c>
       <c r="C2">
-        <v>6.145569675762306</v>
+        <v>8.407551725677791</v>
       </c>
       <c r="D2">
-        <v>4.836593880964283</v>
+        <v>4.534017336983628</v>
       </c>
       <c r="E2">
-        <v>16.45662231652857</v>
+        <v>29.49472624401811</v>
       </c>
       <c r="F2">
-        <v>24.34937062023393</v>
+        <v>19.32879161716699</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.667571513691255</v>
+        <v>12.80591899590199</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>21.75015368155667</v>
+        <v>15.38408548406781</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,19 +462,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.17027533169408</v>
+        <v>13.30513556517455</v>
       </c>
       <c r="C3">
-        <v>5.978901922792356</v>
+        <v>8.042540645066437</v>
       </c>
       <c r="D3">
-        <v>4.795374274760977</v>
+        <v>4.427146311812318</v>
       </c>
       <c r="E3">
-        <v>15.52626842187457</v>
+        <v>27.35761363206435</v>
       </c>
       <c r="F3">
-        <v>24.35783602768995</v>
+        <v>18.88533349280887</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -483,7 +483,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.417167355826217</v>
+        <v>12.0931417149639</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>21.81322534259327</v>
+        <v>15.285105915337</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,19 +503,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.952472728208928</v>
+        <v>12.71264551730443</v>
       </c>
       <c r="C4">
-        <v>5.873289745481984</v>
+        <v>7.810054773989865</v>
       </c>
       <c r="D4">
-        <v>4.769532975394966</v>
+        <v>4.359701252850224</v>
       </c>
       <c r="E4">
-        <v>14.93045656831966</v>
+        <v>25.98241889044715</v>
       </c>
       <c r="F4">
-        <v>24.37059821565621</v>
+        <v>18.63061715211498</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -524,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.260876708963771</v>
+        <v>11.63413850295075</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>21.85763764166031</v>
+        <v>15.24166689898329</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,19 +544,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.862542160691657</v>
+        <v>12.46331903210861</v>
       </c>
       <c r="C5">
-        <v>5.829467662113198</v>
+        <v>7.713276266191451</v>
       </c>
       <c r="D5">
-        <v>4.758873257366198</v>
+        <v>4.331781933921908</v>
       </c>
       <c r="E5">
-        <v>14.68175075304581</v>
+        <v>25.40586605293847</v>
       </c>
       <c r="F5">
-        <v>24.37769639679664</v>
+        <v>18.53122681844825</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.196645470465526</v>
+        <v>11.44177606205545</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>21.87715984649077</v>
+        <v>15.22813591738872</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,19 +585,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.847542731773315</v>
+        <v>12.42144198364854</v>
       </c>
       <c r="C6">
-        <v>5.822144897733559</v>
+        <v>7.697085309580164</v>
       </c>
       <c r="D6">
-        <v>4.757095554917283</v>
+        <v>4.32712042437974</v>
       </c>
       <c r="E6">
-        <v>14.64010549543998</v>
+        <v>25.3091458124468</v>
       </c>
       <c r="F6">
-        <v>24.37898948570619</v>
+        <v>18.51498883269053</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -606,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.185950188363185</v>
+        <v>11.40951543571554</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>21.88048730981578</v>
+        <v>15.22613541118803</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,19 +626,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.951264450970392</v>
+        <v>12.70931495252385</v>
       </c>
       <c r="C7">
-        <v>5.872701865985945</v>
+        <v>7.808757743486318</v>
       </c>
       <c r="D7">
-        <v>4.769389731554663</v>
+        <v>4.359326450904702</v>
       </c>
       <c r="E7">
-        <v>14.92712595775057</v>
+        <v>25.97470908219677</v>
       </c>
       <c r="F7">
-        <v>24.37068626856873</v>
+        <v>18.62925891202832</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -647,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.260012523168491</v>
+        <v>11.63156566786613</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>21.85789516805773</v>
+        <v>15.24146778055955</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,19 +667,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.398275280444068</v>
+        <v>13.91050235193873</v>
       </c>
       <c r="C8">
-        <v>6.088805846639046</v>
+        <v>8.283467874478983</v>
       </c>
       <c r="D8">
-        <v>4.822494617429653</v>
+        <v>4.497561165151931</v>
       </c>
       <c r="E8">
-        <v>16.141082836171</v>
+        <v>28.77073371956421</v>
       </c>
       <c r="F8">
-        <v>24.35071711371996</v>
+        <v>19.17223954249555</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.581816195715877</v>
+        <v>12.56461235268029</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>21.77071714308919</v>
+        <v>15.34624794262035</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,19 +708,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.22784338344551</v>
+        <v>16.01973790865353</v>
       </c>
       <c r="C9">
-        <v>6.48498629271159</v>
+        <v>9.145761404020707</v>
       </c>
       <c r="D9">
-        <v>4.922209317477546</v>
+        <v>4.75317397568009</v>
       </c>
       <c r="E9">
-        <v>18.38985695548248</v>
+        <v>33.76883585697848</v>
       </c>
       <c r="F9">
-        <v>24.37172484707983</v>
+        <v>20.37629323313789</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -729,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.188751054253776</v>
+        <v>14.22346428552389</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>21.64513309329778</v>
+        <v>15.69737945020618</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,19 +749,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.80220830364153</v>
+        <v>17.42215747942383</v>
       </c>
       <c r="C10">
-        <v>6.75732003889713</v>
+        <v>9.735358898434029</v>
       </c>
       <c r="D10">
-        <v>4.992511965249267</v>
+        <v>4.930353779446329</v>
       </c>
       <c r="E10">
-        <v>20.02410079230791</v>
+        <v>37.16804841958301</v>
       </c>
       <c r="F10">
-        <v>24.42395079512913</v>
+        <v>21.34534035595625</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.643766359580628</v>
+        <v>15.33742992930396</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>21.58085853345176</v>
+        <v>16.05480546052778</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,19 +790,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.05475985586905</v>
+        <v>18.02897312218363</v>
       </c>
       <c r="C11">
-        <v>6.876796906513307</v>
+        <v>9.993825265523906</v>
       </c>
       <c r="D11">
-        <v>5.023798682573288</v>
+        <v>5.008431976176473</v>
       </c>
       <c r="E11">
-        <v>20.72552826646207</v>
+        <v>38.66082010256955</v>
       </c>
       <c r="F11">
-        <v>24.45569190830027</v>
+        <v>21.80443731917891</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -811,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.886044951325806</v>
+        <v>15.82161493514815</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>21.5577610032522</v>
+        <v>16.24116397814489</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,19 +831,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.14906124350819</v>
+        <v>18.2543526270228</v>
       </c>
       <c r="C12">
-        <v>6.921380482161253</v>
+        <v>10.09029336811057</v>
       </c>
       <c r="D12">
-        <v>5.035541896473295</v>
+        <v>5.037619154419875</v>
       </c>
       <c r="E12">
-        <v>20.98513751507764</v>
+        <v>39.21891995466437</v>
       </c>
       <c r="F12">
-        <v>24.46885627261076</v>
+        <v>21.98091542420279</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -852,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.976025520641688</v>
+        <v>16.00174808186338</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>21.54990236830036</v>
+        <v>16.3153211241867</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,19 +872,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.12881225169541</v>
+        <v>18.20600796359703</v>
       </c>
       <c r="C13">
-        <v>6.911808333974815</v>
+        <v>10.06957983078525</v>
       </c>
       <c r="D13">
-        <v>5.03301749902724</v>
+        <v>5.031350295685173</v>
       </c>
       <c r="E13">
-        <v>20.9294926158722</v>
+        <v>39.09903360651405</v>
       </c>
       <c r="F13">
-        <v>24.46597024946929</v>
+        <v>21.94279064939395</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -893,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.956725541476937</v>
+        <v>15.96309570857649</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>21.55155530436764</v>
+        <v>16.29918782805662</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,19 +913,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.06254524801405</v>
+        <v>18.0476031443698</v>
       </c>
       <c r="C14">
-        <v>6.880478183748684</v>
+        <v>10.00178996389606</v>
       </c>
       <c r="D14">
-        <v>5.024766921545897</v>
+        <v>5.010840916125793</v>
       </c>
       <c r="E14">
-        <v>20.74700665777481</v>
+        <v>38.70687603241072</v>
       </c>
       <c r="F14">
-        <v>24.4567520314513</v>
+        <v>21.81890355158648</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.893483242851289</v>
+        <v>15.83649887579722</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>21.5570966477958</v>
+        <v>16.24719207178845</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,19 +954,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.02177884345361</v>
+        <v>17.95000376353466</v>
       </c>
       <c r="C15">
-        <v>6.861200929279645</v>
+        <v>9.960083395884919</v>
       </c>
       <c r="D15">
-        <v>5.01969947739841</v>
+        <v>4.998228455990481</v>
       </c>
       <c r="E15">
-        <v>20.63444754702559</v>
+        <v>38.46574951684464</v>
       </c>
       <c r="F15">
-        <v>24.45125455560755</v>
+        <v>21.74336164930946</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.854514801772382</v>
+        <v>15.75853670185501</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>21.56060664662012</v>
+        <v>16.2158153389747</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,19 +995,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.78552080502791</v>
+        <v>17.38187969813764</v>
       </c>
       <c r="C16">
-        <v>6.74942096482035</v>
+        <v>9.718270671167847</v>
       </c>
       <c r="D16">
-        <v>4.990452942181032</v>
+        <v>4.925198979680618</v>
       </c>
       <c r="E16">
-        <v>19.97741858707068</v>
+        <v>37.06945788973213</v>
       </c>
       <c r="F16">
-        <v>24.42203683650296</v>
+        <v>21.31570469349657</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1016,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.627687477329436</v>
+        <v>15.30533533341335</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>21.5824920080865</v>
+        <v>16.04311927364412</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,19 +1036,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.63828866698727</v>
+        <v>17.02542337292921</v>
       </c>
       <c r="C17">
-        <v>6.679699166830932</v>
+        <v>9.567423035634892</v>
       </c>
       <c r="D17">
-        <v>4.972330040193686</v>
+        <v>4.879739523299014</v>
       </c>
       <c r="E17">
-        <v>19.56361952687138</v>
+        <v>36.19951549422073</v>
       </c>
       <c r="F17">
-        <v>24.40615556839093</v>
+        <v>21.05802704461186</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.492996367106688</v>
+        <v>15.02154759348052</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>21.59749443083587</v>
+        <v>15.94338417002362</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,19 +1077,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.55278697203531</v>
+        <v>16.81746219875048</v>
       </c>
       <c r="C18">
-        <v>6.639183387809893</v>
+        <v>9.479742012536953</v>
       </c>
       <c r="D18">
-        <v>4.961841139402024</v>
+        <v>4.85335598821801</v>
       </c>
       <c r="E18">
-        <v>19.32165820945405</v>
+        <v>35.69407325195275</v>
       </c>
       <c r="F18">
-        <v>24.39777280098755</v>
+        <v>20.91153687032384</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.429424487323349</v>
+        <v>14.85619418810235</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>21.60670121248881</v>
+        <v>15.88824600925365</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,19 +1118,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.52369971070441</v>
+        <v>16.74654365803886</v>
       </c>
       <c r="C19">
-        <v>6.625395223770196</v>
+        <v>9.449897502159249</v>
       </c>
       <c r="D19">
-        <v>4.958278739483635</v>
+        <v>4.844382897459719</v>
       </c>
       <c r="E19">
-        <v>19.23905396751062</v>
+        <v>35.52205275093736</v>
       </c>
       <c r="F19">
-        <v>24.39506372327378</v>
+        <v>20.86223330168221</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.407820200038328</v>
+        <v>14.79984254981398</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>21.60991755345162</v>
+        <v>15.86995440883399</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,19 +1159,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.65404700959027</v>
+        <v>17.06367222693139</v>
       </c>
       <c r="C20">
-        <v>6.687164176477673</v>
+        <v>9.583576053161224</v>
       </c>
       <c r="D20">
-        <v>4.9742660235742</v>
+        <v>4.88460335814042</v>
       </c>
       <c r="E20">
-        <v>19.60807823426329</v>
+        <v>36.29264394516623</v>
       </c>
       <c r="F20">
-        <v>24.40776837536794</v>
+        <v>21.08527938315047</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.504723621468585</v>
+        <v>15.05197717614025</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>21.59583756276146</v>
+        <v>15.95376943343791</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,19 +1200,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.08204626844021</v>
+        <v>18.09424951519866</v>
       </c>
       <c r="C21">
-        <v>6.88969870471875</v>
+        <v>10.02173969162783</v>
       </c>
       <c r="D21">
-        <v>5.027193184833818</v>
+        <v>5.016875439397672</v>
       </c>
       <c r="E21">
-        <v>20.80076994803954</v>
+        <v>38.82225265728616</v>
       </c>
       <c r="F21">
-        <v>24.45942861275861</v>
+        <v>21.85522079063665</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.912107166817583</v>
+        <v>15.87377047086175</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>21.55544488738953</v>
+        <v>16.26236578545591</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,19 +1241,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.35396088979236</v>
+        <v>18.74213460368735</v>
       </c>
       <c r="C22">
-        <v>7.018211269704115</v>
+        <v>10.2999049531267</v>
       </c>
       <c r="D22">
-        <v>5.061173671832623</v>
+        <v>5.101105028892008</v>
       </c>
       <c r="E22">
-        <v>21.54526994555979</v>
+        <v>40.4339309033956</v>
       </c>
       <c r="F22">
-        <v>24.49986109966872</v>
+        <v>22.37375270426617</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10.17069553988705</v>
+        <v>16.39212865624365</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>21.5342232299846</v>
+        <v>16.48503832982765</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,19 +1282,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.20957287717492</v>
+        <v>18.3986680996244</v>
       </c>
       <c r="C23">
-        <v>6.949982286850164</v>
+        <v>10.15219276040654</v>
       </c>
       <c r="D23">
-        <v>5.043094976288632</v>
+        <v>5.056358206408797</v>
       </c>
       <c r="E23">
-        <v>21.15110724077332</v>
+        <v>39.5773637352836</v>
       </c>
       <c r="F23">
-        <v>24.47767274343278</v>
+        <v>22.09559527312886</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10.03363346111813</v>
+        <v>16.11717291444834</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>21.54507442634607</v>
+        <v>16.36421774588879</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,19 +1323,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.6469253229613</v>
+        <v>17.04638936211638</v>
       </c>
       <c r="C24">
-        <v>6.683790588622301</v>
+        <v>9.576276253273685</v>
       </c>
       <c r="D24">
-        <v>4.97339098253647</v>
+        <v>4.882405190489902</v>
       </c>
       <c r="E24">
-        <v>19.58799111030701</v>
+        <v>36.25055712169603</v>
       </c>
       <c r="F24">
-        <v>24.40703689632963</v>
+        <v>21.07295345464661</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.499423301351637</v>
+        <v>15.03822681642408</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>21.59658482115928</v>
+        <v>15.9490674134911</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.0091726872347</v>
+        <v>15.47523086482321</v>
       </c>
       <c r="C25">
-        <v>6.380973029697469</v>
+        <v>8.920093529360125</v>
       </c>
       <c r="D25">
-        <v>4.895734711069881</v>
+        <v>4.685808897707585</v>
       </c>
       <c r="E25">
-        <v>17.75155183517432</v>
+        <v>32.46640447453718</v>
       </c>
       <c r="F25">
-        <v>24.35958298269789</v>
+        <v>20.03569200724023</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.027665718823757</v>
+        <v>13.79311541738584</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>21.67421395518986</v>
+        <v>15.58567175371771</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_8/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_8/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,989 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.21920714219969</v>
+        <v>11.0714275859055</v>
       </c>
       <c r="C2">
-        <v>8.407551725677791</v>
+        <v>9.863682327997813</v>
       </c>
       <c r="D2">
-        <v>4.534017336983628</v>
+        <v>6.263833530519499</v>
       </c>
       <c r="E2">
-        <v>29.49472624401811</v>
+        <v>14.57576080862684</v>
       </c>
       <c r="F2">
-        <v>19.32879161716699</v>
+        <v>40.56858551129888</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>2.2115995431433</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.587981554378435</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K2">
-        <v>12.80591899590199</v>
+        <v>29.18371759714385</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.16683922196687</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>15.38408548406781</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>14.22008704121226</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.30513556517455</v>
+        <v>10.3536744576535</v>
       </c>
       <c r="C3">
-        <v>8.042540645066437</v>
+        <v>9.166681845908448</v>
       </c>
       <c r="D3">
-        <v>4.427146311812318</v>
+        <v>6.171191904286665</v>
       </c>
       <c r="E3">
-        <v>27.35761363206435</v>
+        <v>13.59300773108955</v>
       </c>
       <c r="F3">
-        <v>18.88533349280887</v>
+        <v>38.77116151796373</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>2.476675840096937</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.830547111464012</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K3">
-        <v>12.0931417149639</v>
+        <v>28.1381153288546</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.46400926854772</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>15.285105915337</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>13.38178090797741</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.71264551730443</v>
+        <v>9.886901586896107</v>
       </c>
       <c r="C4">
-        <v>7.810054773989865</v>
+        <v>8.719308356757855</v>
       </c>
       <c r="D4">
-        <v>4.359701252850224</v>
+        <v>6.110345244116535</v>
       </c>
       <c r="E4">
-        <v>25.98241889044715</v>
+        <v>12.9556291353846</v>
       </c>
       <c r="F4">
-        <v>18.63061715211498</v>
+        <v>37.62157104316569</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>2.644770037455128</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.984741916543963</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K4">
-        <v>11.63413850295075</v>
+        <v>27.47001718793981</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.00945405074988</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.24166689898329</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>12.84154117279811</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.46331903210861</v>
+        <v>9.688191910258467</v>
       </c>
       <c r="C5">
-        <v>7.713276266191451</v>
+        <v>8.539593331555508</v>
       </c>
       <c r="D5">
-        <v>4.331781933921908</v>
+        <v>6.080236802976384</v>
       </c>
       <c r="E5">
-        <v>25.40586605293847</v>
+        <v>12.6861813512831</v>
       </c>
       <c r="F5">
-        <v>18.53122681844825</v>
+        <v>37.10659005984797</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>2.71502132905721</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>4.051759847824696</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K5">
-        <v>11.44177606205545</v>
+        <v>27.16339430336227</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.819363792186371</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.22813591738872</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>12.61553340234267</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.42144198364854</v>
+        <v>9.652457646544562</v>
       </c>
       <c r="C6">
-        <v>7.697085309580164</v>
+        <v>8.518638786948319</v>
       </c>
       <c r="D6">
-        <v>4.32712042437974</v>
+        <v>6.069912175020486</v>
       </c>
       <c r="E6">
-        <v>25.3091458124468</v>
+        <v>12.63956055603082</v>
       </c>
       <c r="F6">
-        <v>18.51498883269053</v>
+        <v>36.97711053898024</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>2.727233737952565</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>4.066573373212353</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K6">
-        <v>11.40951543571554</v>
+        <v>27.07778984579747</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.788599061613798</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.22613541118803</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>12.57821838244577</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.70931495252385</v>
+        <v>9.877993219835158</v>
       </c>
       <c r="C7">
-        <v>7.808757743486318</v>
+        <v>8.741312456245206</v>
       </c>
       <c r="D7">
-        <v>4.359326450904702</v>
+        <v>6.095632766995637</v>
       </c>
       <c r="E7">
-        <v>25.97470908219677</v>
+        <v>12.94838683338378</v>
       </c>
       <c r="F7">
-        <v>18.62925891202832</v>
+        <v>37.49818619664117</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>2.646967203591708</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.995242438336537</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K7">
-        <v>11.63156566786613</v>
+        <v>27.37328700235595</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.00997434700433</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.24146778055955</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>12.84009862858497</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.91050235193873</v>
+        <v>10.82163467499015</v>
       </c>
       <c r="C8">
-        <v>8.283467874478983</v>
+        <v>9.656859094805558</v>
       </c>
       <c r="D8">
-        <v>4.497561165151931</v>
+        <v>6.214187096780758</v>
       </c>
       <c r="E8">
-        <v>28.77073371956421</v>
+        <v>14.2393722902876</v>
       </c>
       <c r="F8">
-        <v>19.17223954249555</v>
+        <v>39.81259184561281</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>2.30352318562297</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.682955924818065</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K8">
-        <v>12.56461235268029</v>
+        <v>28.71133072124373</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10.93298583562132</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>15.34624794262035</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>13.93828587626111</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.01973790865353</v>
+        <v>12.47673773429272</v>
       </c>
       <c r="C9">
-        <v>9.145761404020707</v>
+        <v>11.26195561082634</v>
       </c>
       <c r="D9">
-        <v>4.75317397568009</v>
+        <v>6.43986325299243</v>
       </c>
       <c r="E9">
-        <v>33.76883585697848</v>
+        <v>16.51029067646313</v>
       </c>
       <c r="F9">
-        <v>20.37629323313789</v>
+        <v>44.16314620063632</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1.668794663099824</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.095090299506938</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K9">
-        <v>14.22346428552389</v>
+        <v>31.27452711596215</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>12.55635918227246</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.69737945020618</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>15.88473138282684</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.42215747942383</v>
+        <v>13.60835682647054</v>
       </c>
       <c r="C10">
-        <v>9.735358898434029</v>
+        <v>12.31432066801908</v>
       </c>
       <c r="D10">
-        <v>4.930353779446329</v>
+        <v>6.514230183150284</v>
       </c>
       <c r="E10">
-        <v>37.16804841958301</v>
+        <v>17.45481810470606</v>
       </c>
       <c r="F10">
-        <v>21.34534035595625</v>
+        <v>46.57396239084868</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1.864751044996267</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.704726376598566</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K10">
-        <v>15.33742992930396</v>
+        <v>32.61024652784128</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>13.65125012344121</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.05480546052778</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>16.91823413620286</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.02897312218363</v>
+        <v>14.44650219691681</v>
       </c>
       <c r="C11">
-        <v>9.993825265523906</v>
+        <v>12.40715823246774</v>
       </c>
       <c r="D11">
-        <v>5.008431976176473</v>
+        <v>6.044080771675849</v>
       </c>
       <c r="E11">
-        <v>38.66082010256955</v>
+        <v>13.10955827123266</v>
       </c>
       <c r="F11">
-        <v>21.80443731917891</v>
+        <v>43.30166051418643</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>2.743735907065421</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.646299744195248</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K11">
-        <v>15.82161493514815</v>
+        <v>29.95853261956716</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>14.22125603530321</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.24116397814489</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>15.05161125537067</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.2543526270228</v>
+        <v>14.94179939250514</v>
       </c>
       <c r="C12">
-        <v>10.09029336811057</v>
+        <v>12.2444270045622</v>
       </c>
       <c r="D12">
-        <v>5.037619154419875</v>
+        <v>5.771160515016596</v>
       </c>
       <c r="E12">
-        <v>39.21891995466437</v>
+        <v>9.412008083384205</v>
       </c>
       <c r="F12">
-        <v>21.98091542420279</v>
+        <v>40.17222927938783</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4.029328685720836</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.648112846812991</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K12">
-        <v>16.00174808186338</v>
+        <v>27.57968511114286</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>14.48268301247915</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.3153211241867</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>13.25125961283526</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.20600796359703</v>
+        <v>15.21152227147874</v>
       </c>
       <c r="C13">
-        <v>10.06957983078525</v>
+        <v>11.89676156369575</v>
       </c>
       <c r="D13">
-        <v>5.031350295685173</v>
+        <v>5.624677085123071</v>
       </c>
       <c r="E13">
-        <v>39.09903360651405</v>
+        <v>6.190254182025612</v>
       </c>
       <c r="F13">
-        <v>21.94279064939395</v>
+        <v>36.73946993910517</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>5.502447698837903</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.713333418200776</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K13">
-        <v>15.96309570857649</v>
+        <v>25.10998800375893</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>14.53432525979139</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.29918782805662</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>11.39250573109315</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.0476031443698</v>
+        <v>15.30190006306946</v>
       </c>
       <c r="C14">
-        <v>10.00178996389606</v>
+        <v>11.57088792060006</v>
       </c>
       <c r="D14">
-        <v>5.010840916125793</v>
+        <v>5.600028842652061</v>
       </c>
       <c r="E14">
-        <v>38.70687603241072</v>
+        <v>4.776863405868903</v>
       </c>
       <c r="F14">
-        <v>21.81890355158648</v>
+        <v>34.14259467581444</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>6.535803797420327</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.789715563907003</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K14">
-        <v>15.83649887579722</v>
+        <v>23.31798717848061</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>14.47821889802498</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.24719207178845</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>10.14816404094386</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.95000376353466</v>
+        <v>15.27325712312722</v>
       </c>
       <c r="C15">
-        <v>9.960083395884919</v>
+        <v>11.45712467338068</v>
       </c>
       <c r="D15">
-        <v>4.998228455990481</v>
+        <v>5.604193198335248</v>
       </c>
       <c r="E15">
-        <v>38.46574951684464</v>
+        <v>4.637817377526718</v>
       </c>
       <c r="F15">
-        <v>21.74336164930946</v>
+        <v>33.40403787771903</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>6.776046125517472</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.82798860784447</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K15">
-        <v>15.75853670185501</v>
+        <v>22.83135979744326</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>14.41979704356564</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>16.2158153389747</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>9.828093998195566</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.38187969813764</v>
+        <v>14.77946243906674</v>
       </c>
       <c r="C16">
-        <v>9.718270671167847</v>
+        <v>11.07721798658713</v>
       </c>
       <c r="D16">
-        <v>4.925198979680618</v>
+        <v>5.593321189289205</v>
       </c>
       <c r="E16">
-        <v>37.06945788973213</v>
+        <v>4.487515915852155</v>
       </c>
       <c r="F16">
-        <v>21.31570469349657</v>
+        <v>32.82711629294448</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>6.582153258094424</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.985037938985386</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K16">
-        <v>15.30533533341335</v>
+        <v>22.62380552533854</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>13.97004017469926</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>16.04311927364412</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>9.63625425551791</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.02542337292921</v>
+        <v>14.33950960003886</v>
       </c>
       <c r="C17">
-        <v>9.567423035634892</v>
+        <v>10.96388882016841</v>
       </c>
       <c r="D17">
-        <v>4.879739523299014</v>
+        <v>5.584489032400482</v>
       </c>
       <c r="E17">
-        <v>36.19951549422073</v>
+        <v>4.884404531690911</v>
       </c>
       <c r="F17">
-        <v>21.05802704461186</v>
+        <v>33.80700941629763</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>5.855612475123947</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.06689629582692</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K17">
-        <v>15.02154759348052</v>
+        <v>23.4259367235263</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>13.6478485431117</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>15.94338417002362</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>10.16086849407419</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.81746219875048</v>
+        <v>13.90940139571305</v>
       </c>
       <c r="C18">
-        <v>9.479742012536953</v>
+        <v>11.0583807917856</v>
       </c>
       <c r="D18">
-        <v>4.85335598821801</v>
+        <v>5.650084177171446</v>
       </c>
       <c r="E18">
-        <v>35.69407325195275</v>
+        <v>7.030115476755807</v>
       </c>
       <c r="F18">
-        <v>20.91153687032384</v>
+        <v>36.3369763552048</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>4.605744365789268</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.077002434218199</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K18">
-        <v>14.85619418810235</v>
+        <v>25.28927307258455</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>13.40489429714118</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>15.88824600925365</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>11.46029159843409</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.74654365803886</v>
+        <v>13.52175731343547</v>
       </c>
       <c r="C19">
-        <v>9.449897502159249</v>
+        <v>11.3495392510252</v>
       </c>
       <c r="D19">
-        <v>4.844382897459719</v>
+        <v>5.866196082997196</v>
       </c>
       <c r="E19">
-        <v>35.52205275093736</v>
+        <v>10.79374522206293</v>
       </c>
       <c r="F19">
-        <v>20.86223330168221</v>
+        <v>39.73993815977983</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>3.102540015158045</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.041239096537812</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K19">
-        <v>14.79984254981398</v>
+        <v>27.76452117121058</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>13.2566984508764</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>15.86995440883399</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>13.41244080927803</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.06367222693139</v>
+        <v>13.30619907818404</v>
       </c>
       <c r="C20">
-        <v>9.583576053161224</v>
+        <v>12.09805361569657</v>
       </c>
       <c r="D20">
-        <v>4.88460335814042</v>
+        <v>6.452695908251699</v>
       </c>
       <c r="E20">
-        <v>36.29264394516623</v>
+        <v>17.17633172041476</v>
       </c>
       <c r="F20">
-        <v>21.08527938315047</v>
+        <v>45.63206463456633</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>1.752540456524231</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.840890654220721</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K20">
-        <v>15.05197717614025</v>
+        <v>32.0036440100826</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>13.37876769432887</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>15.95376943343791</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>16.64436834286639</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.09424951519866</v>
+        <v>14.07610347124642</v>
       </c>
       <c r="C21">
-        <v>10.02173969162783</v>
+        <v>12.93502231144234</v>
       </c>
       <c r="D21">
-        <v>5.016875439397672</v>
+        <v>6.613575893726223</v>
       </c>
       <c r="E21">
-        <v>38.82225265728616</v>
+        <v>18.73458290452226</v>
       </c>
       <c r="F21">
-        <v>21.85522079063665</v>
+        <v>48.23627844958886</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>2.097595322666535</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.525473947474491</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K21">
-        <v>15.87377047086175</v>
+        <v>33.60987831418614</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>14.16691977732156</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>16.26236578545591</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>17.81862137968341</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.74213460368735</v>
+        <v>14.58498080645528</v>
       </c>
       <c r="C22">
-        <v>10.2999049531267</v>
+        <v>13.42179784652795</v>
       </c>
       <c r="D22">
-        <v>5.101105028892008</v>
+        <v>6.698691191353809</v>
       </c>
       <c r="E22">
-        <v>40.4339309033956</v>
+        <v>19.43691274929869</v>
       </c>
       <c r="F22">
-        <v>22.37375270426617</v>
+        <v>49.75422965337626</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>2.308722302235529</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.682204327830368</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K22">
-        <v>16.39212865624365</v>
+        <v>34.54049194537869</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>14.66566481693833</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16.48503832982765</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>18.42175109223175</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.3986680996244</v>
+        <v>14.32092496667393</v>
       </c>
       <c r="C23">
-        <v>10.15219276040654</v>
+        <v>13.14344097495098</v>
       </c>
       <c r="D23">
-        <v>5.056358206408797</v>
+        <v>6.668822608588851</v>
       </c>
       <c r="E23">
-        <v>39.5773637352836</v>
+        <v>19.06803516884288</v>
       </c>
       <c r="F23">
-        <v>22.09559527312886</v>
+        <v>49.056754572895</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>2.197646216904211</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.577632840314184</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K23">
-        <v>16.11717291444834</v>
+        <v>34.136264255795</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>14.39875254272324</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.36421774588879</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>18.10068425891753</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.04638936211638</v>
+        <v>13.26902197295273</v>
       </c>
       <c r="C24">
-        <v>9.576276253273685</v>
+        <v>12.08869016581275</v>
       </c>
       <c r="D24">
-        <v>4.882405190489902</v>
+        <v>6.525020500643464</v>
       </c>
       <c r="E24">
-        <v>36.25055712169603</v>
+        <v>17.61049895333958</v>
       </c>
       <c r="F24">
-        <v>21.07295345464661</v>
+        <v>46.15436800051251</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>1.768209965829627</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.815557461026439</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K24">
-        <v>15.03822681642408</v>
+        <v>32.41229478674654</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>13.35310794674963</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>15.9490674134911</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>16.84060866364555</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.47523086482321</v>
+        <v>12.04114906355979</v>
       </c>
       <c r="C25">
-        <v>8.920093529360125</v>
+        <v>10.87957770714222</v>
       </c>
       <c r="D25">
-        <v>4.685808897707585</v>
+        <v>6.357774096201056</v>
       </c>
       <c r="E25">
-        <v>32.46640447453718</v>
+        <v>15.91829256267807</v>
       </c>
       <c r="F25">
-        <v>20.03569200724023</v>
+        <v>42.84379020090279</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>1.838464912627723</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.268101516427187</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K25">
-        <v>13.79311541738584</v>
+        <v>30.45455796546488</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>12.14102291779338</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.58567175371771</v>
+        <v>15.38260410040949</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_8/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_8/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.0714275859055</v>
+        <v>10.97336762618768</v>
       </c>
       <c r="C2">
-        <v>9.863682327997813</v>
+        <v>11.04381979837236</v>
       </c>
       <c r="D2">
-        <v>6.263833530519499</v>
+        <v>5.466803184971671</v>
       </c>
       <c r="E2">
-        <v>14.57576080862684</v>
+        <v>14.58546876347093</v>
       </c>
       <c r="F2">
-        <v>40.56858551129888</v>
+        <v>34.09520604683871</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>2.2115995431433</v>
+        <v>2.11035498461889</v>
       </c>
       <c r="I2">
-        <v>3.587981554378435</v>
+        <v>3.356578080178693</v>
       </c>
       <c r="J2">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K2">
-        <v>29.18371759714385</v>
+        <v>23.83555960773664</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>18.92997644229286</v>
       </c>
       <c r="M2">
-        <v>11.16683922196687</v>
+        <v>16.59304353551479</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.22008704121226</v>
+        <v>11.43833073608448</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>14.37182544985901</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.3536744576535</v>
+        <v>10.30307128489668</v>
       </c>
       <c r="C3">
-        <v>9.166681845908448</v>
+        <v>10.23816313511238</v>
       </c>
       <c r="D3">
-        <v>6.171191904286665</v>
+        <v>5.436468526476931</v>
       </c>
       <c r="E3">
-        <v>13.59300773108955</v>
+        <v>13.63315140475889</v>
       </c>
       <c r="F3">
-        <v>38.77116151796373</v>
+        <v>32.92277213580401</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2.476675840096937</v>
+        <v>2.35947090047132</v>
       </c>
       <c r="I3">
-        <v>3.830547111464012</v>
+        <v>3.564298061299857</v>
       </c>
       <c r="J3">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K3">
-        <v>28.1381153288546</v>
+        <v>23.31137685109483</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>18.69486275112086</v>
       </c>
       <c r="M3">
-        <v>10.46400926854772</v>
+        <v>16.04391430892676</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.38178090797741</v>
+        <v>10.72628002316798</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>13.52958783229046</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.886901586896107</v>
+        <v>9.867546185264423</v>
       </c>
       <c r="C4">
-        <v>8.719308356757855</v>
+        <v>9.719729240707741</v>
       </c>
       <c r="D4">
-        <v>6.110345244116535</v>
+        <v>5.415494867629934</v>
       </c>
       <c r="E4">
-        <v>12.9556291353846</v>
+        <v>13.01538846096613</v>
       </c>
       <c r="F4">
-        <v>37.62157104316569</v>
+        <v>32.17676520058357</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2.644770037455128</v>
+        <v>2.517611633265734</v>
       </c>
       <c r="I4">
-        <v>3.984741916543963</v>
+        <v>3.696820416127589</v>
       </c>
       <c r="J4">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K4">
-        <v>27.47001718793981</v>
+        <v>22.97652763108765</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>18.53629653467866</v>
       </c>
       <c r="M4">
-        <v>10.00945405074988</v>
+        <v>15.71016976943645</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.84154117279811</v>
+        <v>10.26551707129152</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>12.98667596666503</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.688191910258467</v>
+        <v>9.682452349731015</v>
       </c>
       <c r="C5">
-        <v>8.539593331555508</v>
+        <v>9.508780122040877</v>
       </c>
       <c r="D5">
-        <v>6.080236802976384</v>
+        <v>5.404566809891733</v>
       </c>
       <c r="E5">
-        <v>12.6861813512831</v>
+        <v>12.75436885314554</v>
       </c>
       <c r="F5">
-        <v>37.10659005984797</v>
+        <v>31.83864468063742</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2.71502132905721</v>
+        <v>2.583698924465227</v>
       </c>
       <c r="I5">
-        <v>4.051759847824696</v>
+        <v>3.755274130298166</v>
       </c>
       <c r="J5">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K5">
-        <v>27.16339430336227</v>
+        <v>22.81586310965041</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>18.45107842511937</v>
       </c>
       <c r="M5">
-        <v>9.819363792186371</v>
+        <v>15.56060232386166</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.61553340234267</v>
+        <v>10.0726086898828</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>12.75942883977663</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.652457646544562</v>
+        <v>9.649405033145367</v>
       </c>
       <c r="C6">
-        <v>8.518638786948319</v>
+        <v>9.481110573242876</v>
       </c>
       <c r="D6">
-        <v>6.069912175020486</v>
+        <v>5.400548669462594</v>
       </c>
       <c r="E6">
-        <v>12.63956055603082</v>
+        <v>12.70938079348405</v>
       </c>
       <c r="F6">
-        <v>36.97711053898024</v>
+        <v>31.74811901002369</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2.727233737952565</v>
+        <v>2.595138092950445</v>
       </c>
       <c r="I6">
-        <v>4.066573373212353</v>
+        <v>3.769124937758839</v>
       </c>
       <c r="J6">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K6">
-        <v>27.07778984579747</v>
+        <v>22.76329950911441</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>18.41593976447939</v>
       </c>
       <c r="M6">
-        <v>9.788599061613798</v>
+        <v>15.5177683335448</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.57821838244577</v>
+        <v>10.04116447215901</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>12.72178758784797</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.877993219835158</v>
+        <v>9.859867535463824</v>
       </c>
       <c r="C7">
-        <v>8.741312456245206</v>
+        <v>9.737431429989776</v>
       </c>
       <c r="D7">
-        <v>6.095632766995637</v>
+        <v>5.409552233568205</v>
       </c>
       <c r="E7">
-        <v>12.94838683338378</v>
+        <v>13.0088508948801</v>
       </c>
       <c r="F7">
-        <v>37.49818619664117</v>
+        <v>32.08068244968163</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2.646967203591708</v>
+        <v>2.519534484358286</v>
       </c>
       <c r="I7">
-        <v>3.995242438336537</v>
+        <v>3.708410855018354</v>
       </c>
       <c r="J7">
-        <v>4.251792669778333</v>
+        <v>5.712988455786178</v>
       </c>
       <c r="K7">
-        <v>27.37328700235595</v>
+        <v>22.90495110287285</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>18.47952505341259</v>
       </c>
       <c r="M7">
-        <v>10.00997434700433</v>
+        <v>15.65873738903211</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.84009862858497</v>
+        <v>10.26546136249495</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>12.98490542367073</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.82163467499015</v>
+        <v>10.74082757226276</v>
       </c>
       <c r="C8">
-        <v>9.656859094805558</v>
+        <v>10.79576206660199</v>
       </c>
       <c r="D8">
-        <v>6.214187096780758</v>
+        <v>5.449747152667451</v>
       </c>
       <c r="E8">
-        <v>14.2393722902876</v>
+        <v>14.26017892541915</v>
       </c>
       <c r="F8">
-        <v>39.81259184561281</v>
+        <v>33.58137529432823</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2.30352318562297</v>
+        <v>2.196505145452821</v>
       </c>
       <c r="I8">
-        <v>3.682955924818065</v>
+        <v>3.441126329861199</v>
       </c>
       <c r="J8">
-        <v>4.251792669778333</v>
+        <v>5.711640832521052</v>
       </c>
       <c r="K8">
-        <v>28.71133072124373</v>
+        <v>23.56916969213309</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>18.78281022433933</v>
       </c>
       <c r="M8">
-        <v>10.93298583562132</v>
+        <v>16.33830811145932</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.93828587626111</v>
+        <v>11.20079446633129</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>14.0883563383572</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.47673773429272</v>
+        <v>12.2867998906265</v>
       </c>
       <c r="C9">
-        <v>11.26195561082634</v>
+        <v>12.65200659824433</v>
       </c>
       <c r="D9">
-        <v>6.43986325299243</v>
+        <v>5.519245771331476</v>
       </c>
       <c r="E9">
-        <v>16.51029067646313</v>
+        <v>16.45868869318141</v>
       </c>
       <c r="F9">
-        <v>44.16314620063632</v>
+        <v>36.45961244466393</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1.668794663099824</v>
+        <v>1.601222241367448</v>
       </c>
       <c r="I9">
-        <v>3.095090299506938</v>
+        <v>2.937766989366988</v>
       </c>
       <c r="J9">
-        <v>4.251792669778333</v>
+        <v>5.712301332179654</v>
       </c>
       <c r="K9">
-        <v>31.27452711596215</v>
+        <v>24.88321203269214</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>19.35688620639754</v>
       </c>
       <c r="M9">
-        <v>12.55635918227246</v>
+        <v>17.77109402380595</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.88473138282684</v>
+        <v>12.84415872528861</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>16.04312999330233</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.60835682647054</v>
+        <v>13.35185169711716</v>
       </c>
       <c r="C10">
-        <v>12.31432066801908</v>
+        <v>13.84366136851218</v>
       </c>
       <c r="D10">
-        <v>6.514230183150284</v>
+        <v>5.538528449940172</v>
       </c>
       <c r="E10">
-        <v>17.45481810470606</v>
+        <v>17.35787181526428</v>
       </c>
       <c r="F10">
-        <v>46.57396239084868</v>
+        <v>38.02923826898571</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1.864751044996267</v>
+        <v>1.90407443765078</v>
       </c>
       <c r="I10">
-        <v>2.704726376598566</v>
+        <v>2.606966151685805</v>
       </c>
       <c r="J10">
-        <v>4.251792669778333</v>
+        <v>5.744419754315621</v>
       </c>
       <c r="K10">
-        <v>32.61024652784128</v>
+        <v>25.49769511576855</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>19.50196323652614</v>
       </c>
       <c r="M10">
-        <v>13.65125012344121</v>
+        <v>18.5964676751257</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.91823413620286</v>
+        <v>13.94752744810015</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>17.07914263666916</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.44650219691681</v>
+        <v>14.20717507656917</v>
       </c>
       <c r="C11">
-        <v>12.40715823246774</v>
+        <v>13.80323404482799</v>
       </c>
       <c r="D11">
-        <v>6.044080771675849</v>
+        <v>5.460228922299367</v>
       </c>
       <c r="E11">
-        <v>13.10955827123266</v>
+        <v>13.0381554644009</v>
       </c>
       <c r="F11">
-        <v>43.30166051418643</v>
+        <v>35.48489649298796</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2.743735907065421</v>
+        <v>2.769989302943505</v>
       </c>
       <c r="I11">
-        <v>2.646299744195248</v>
+        <v>2.55508115485872</v>
       </c>
       <c r="J11">
-        <v>4.251792669778333</v>
+        <v>5.942780798806006</v>
       </c>
       <c r="K11">
-        <v>29.95853261956716</v>
+        <v>23.52312982282773</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>17.90815280488126</v>
       </c>
       <c r="M11">
-        <v>14.22125603530321</v>
+        <v>17.23460741896186</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15.05161125537067</v>
+        <v>14.49999837399735</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>15.20016194668453</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.94179939250514</v>
+        <v>14.72911870844945</v>
       </c>
       <c r="C12">
-        <v>12.2444270045622</v>
+        <v>13.50258189504826</v>
       </c>
       <c r="D12">
-        <v>5.771160515016596</v>
+        <v>5.49214926674674</v>
       </c>
       <c r="E12">
-        <v>9.412008083384205</v>
+        <v>9.384008369077366</v>
       </c>
       <c r="F12">
-        <v>40.17222927938783</v>
+        <v>33.11245928364742</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.029328685720836</v>
+        <v>4.048251064097563</v>
       </c>
       <c r="I12">
-        <v>2.648112846812991</v>
+        <v>2.549521633099208</v>
       </c>
       <c r="J12">
-        <v>4.251792669778333</v>
+        <v>6.092466875987244</v>
       </c>
       <c r="K12">
-        <v>27.57968511114286</v>
+        <v>21.84076245782169</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>16.63703507336185</v>
       </c>
       <c r="M12">
-        <v>14.48268301247915</v>
+        <v>15.98001707970519</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>13.25125961283526</v>
+        <v>14.74376994851827</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>13.38852530284267</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.21152227147874</v>
+        <v>15.0355295492861</v>
       </c>
       <c r="C13">
-        <v>11.89676156369575</v>
+        <v>12.99528473356276</v>
       </c>
       <c r="D13">
-        <v>5.624677085123071</v>
+        <v>5.59366650510651</v>
       </c>
       <c r="E13">
-        <v>6.190254182025612</v>
+        <v>6.248006746190816</v>
       </c>
       <c r="F13">
-        <v>36.73946993910517</v>
+        <v>30.55693642175558</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5.502447698837903</v>
+        <v>5.487120431023245</v>
       </c>
       <c r="I13">
-        <v>2.713333418200776</v>
+        <v>2.598695471311496</v>
       </c>
       <c r="J13">
-        <v>4.251792669778333</v>
+        <v>6.056017976358584</v>
       </c>
       <c r="K13">
-        <v>25.10998800375893</v>
+        <v>20.17164867036285</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>15.44701854982121</v>
       </c>
       <c r="M13">
-        <v>14.53432525979139</v>
+        <v>14.64964234140549</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>11.39250573109315</v>
+        <v>14.77533266871692</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>11.47154198827649</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.30190006306946</v>
+        <v>15.15642027560023</v>
       </c>
       <c r="C14">
-        <v>11.57088792060006</v>
+        <v>12.54412703813756</v>
       </c>
       <c r="D14">
-        <v>5.600028842652061</v>
+        <v>5.703092290260227</v>
       </c>
       <c r="E14">
-        <v>4.776863405868903</v>
+        <v>4.929172276336417</v>
       </c>
       <c r="F14">
-        <v>34.14259467581444</v>
+        <v>28.64444846962177</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6.535803797420327</v>
+        <v>6.520278885154599</v>
       </c>
       <c r="I14">
-        <v>2.789715563907003</v>
+        <v>2.66086697341222</v>
       </c>
       <c r="J14">
-        <v>4.251792669778333</v>
+        <v>5.953276842055249</v>
       </c>
       <c r="K14">
-        <v>23.31798717848061</v>
+        <v>18.99953580432224</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>14.64017046111207</v>
       </c>
       <c r="M14">
-        <v>14.47821889802498</v>
+        <v>13.67664633735716</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>10.14816404094386</v>
+        <v>14.70330480003854</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>10.20711878194529</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.27325712312722</v>
+        <v>15.13771795213985</v>
       </c>
       <c r="C15">
-        <v>11.45712467338068</v>
+        <v>12.39339388182281</v>
       </c>
       <c r="D15">
-        <v>5.604193198335248</v>
+        <v>5.733185553178975</v>
       </c>
       <c r="E15">
-        <v>4.637817377526718</v>
+        <v>4.813973166937662</v>
       </c>
       <c r="F15">
-        <v>33.40403787771903</v>
+        <v>28.10861070570586</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6.776046125517472</v>
+        <v>6.760063321892041</v>
       </c>
       <c r="I15">
-        <v>2.82798860784447</v>
+        <v>2.694371201321822</v>
       </c>
       <c r="J15">
-        <v>4.251792669778333</v>
+        <v>5.901744702168163</v>
       </c>
       <c r="K15">
-        <v>22.83135979744326</v>
+        <v>18.6943044758305</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>14.43908292048518</v>
       </c>
       <c r="M15">
-        <v>14.41979704356564</v>
+        <v>13.40970333807594</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>9.828093998195566</v>
+        <v>14.64038383245713</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>9.881265133282721</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.77946243906674</v>
+        <v>14.66450108566615</v>
       </c>
       <c r="C16">
-        <v>11.07721798658713</v>
+        <v>11.96969422034881</v>
       </c>
       <c r="D16">
-        <v>5.593321189289205</v>
+        <v>5.686715327784543</v>
       </c>
       <c r="E16">
-        <v>4.487515915852155</v>
+        <v>4.690765483734472</v>
       </c>
       <c r="F16">
-        <v>32.82711629294448</v>
+        <v>27.7777705434542</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6.582153258094424</v>
+        <v>6.561549128810433</v>
       </c>
       <c r="I16">
-        <v>2.985037938985386</v>
+        <v>2.830825989567578</v>
       </c>
       <c r="J16">
-        <v>4.251792669778333</v>
+        <v>5.738831790925769</v>
       </c>
       <c r="K16">
-        <v>22.62380552533854</v>
+        <v>18.68490738178259</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>14.51540644245805</v>
       </c>
       <c r="M16">
-        <v>13.97004017469926</v>
+        <v>13.28120289352166</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>9.63625425551791</v>
+        <v>14.18845491661766</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>9.682662493166632</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.33950960003886</v>
+        <v>14.2241659483602</v>
       </c>
       <c r="C17">
-        <v>10.96388882016841</v>
+        <v>11.89328935292642</v>
       </c>
       <c r="D17">
-        <v>5.584489032400482</v>
+        <v>5.588277276679081</v>
       </c>
       <c r="E17">
-        <v>4.884404531690911</v>
+        <v>5.054122386533543</v>
       </c>
       <c r="F17">
-        <v>33.80700941629763</v>
+        <v>28.56972307944798</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>5.855612475123947</v>
+        <v>5.830398533612985</v>
       </c>
       <c r="I17">
-        <v>3.06689629582692</v>
+        <v>2.90421596992919</v>
       </c>
       <c r="J17">
-        <v>4.251792669778333</v>
+        <v>5.713305037326999</v>
       </c>
       <c r="K17">
-        <v>23.4259367235263</v>
+        <v>19.30118224789264</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>15.01276670002083</v>
       </c>
       <c r="M17">
-        <v>13.6478485431117</v>
+        <v>13.69692602472349</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>10.16086849407419</v>
+        <v>13.87378849860546</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>10.21378529100559</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.90940139571305</v>
+        <v>13.77450929253514</v>
       </c>
       <c r="C18">
-        <v>11.0583807917856</v>
+        <v>12.10214086875043</v>
       </c>
       <c r="D18">
-        <v>5.650084177171446</v>
+        <v>5.472682625505749</v>
       </c>
       <c r="E18">
-        <v>7.030115476755807</v>
+        <v>7.105356873705175</v>
       </c>
       <c r="F18">
-        <v>36.3369763552048</v>
+        <v>30.49206018315845</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.605744365789268</v>
+        <v>4.574744449180225</v>
       </c>
       <c r="I18">
-        <v>3.077002434218199</v>
+        <v>2.914663723048106</v>
       </c>
       <c r="J18">
-        <v>4.251792669778333</v>
+        <v>5.711150574177133</v>
       </c>
       <c r="K18">
-        <v>25.28927307258455</v>
+        <v>20.60538466509399</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>16.00142684824963</v>
       </c>
       <c r="M18">
-        <v>13.40489429714118</v>
+        <v>14.67392669596408</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>11.46029159843409</v>
+        <v>13.64752878819126</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>11.58923575574371</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.52175731343547</v>
+        <v>13.35468787174971</v>
       </c>
       <c r="C19">
-        <v>11.3495392510252</v>
+        <v>12.5534635426388</v>
       </c>
       <c r="D19">
-        <v>5.866196082997196</v>
+        <v>5.42132140597711</v>
       </c>
       <c r="E19">
-        <v>10.79374522206293</v>
+        <v>10.79067453585295</v>
       </c>
       <c r="F19">
-        <v>39.73993815977983</v>
+        <v>33.03477317143258</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3.102540015158045</v>
+        <v>3.063233368516578</v>
       </c>
       <c r="I19">
-        <v>3.041239096537812</v>
+        <v>2.891685609549904</v>
       </c>
       <c r="J19">
-        <v>4.251792669778333</v>
+        <v>5.711490394033017</v>
       </c>
       <c r="K19">
-        <v>27.76452117121058</v>
+        <v>22.30013519103133</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>17.26877342211489</v>
       </c>
       <c r="M19">
-        <v>13.2566984508764</v>
+        <v>15.96972463736167</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.41244080927803</v>
+        <v>13.51986386975133</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>13.55379534354975</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.30619907818404</v>
+        <v>13.06967349119749</v>
       </c>
       <c r="C20">
-        <v>12.09805361569657</v>
+        <v>13.58209886343736</v>
       </c>
       <c r="D20">
-        <v>6.452695908251699</v>
+        <v>5.52029346075016</v>
       </c>
       <c r="E20">
-        <v>17.17633172041476</v>
+        <v>17.09338163786544</v>
       </c>
       <c r="F20">
-        <v>45.63206463456633</v>
+        <v>37.36955623914267</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>1.752540456524231</v>
+        <v>1.799619563958959</v>
       </c>
       <c r="I20">
-        <v>2.840890654220721</v>
+        <v>2.732238749347458</v>
       </c>
       <c r="J20">
-        <v>4.251792669778333</v>
+        <v>5.714445660903893</v>
       </c>
       <c r="K20">
-        <v>32.0036440100826</v>
+        <v>25.140017948472</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>19.3178300385792</v>
       </c>
       <c r="M20">
-        <v>13.37876769432887</v>
+        <v>18.22769176900407</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.64436834286639</v>
+        <v>13.6718875735956</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>16.80400066789319</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.07610347124642</v>
+        <v>13.78199187100348</v>
       </c>
       <c r="C21">
-        <v>12.93502231144234</v>
+        <v>14.55595948252846</v>
       </c>
       <c r="D21">
-        <v>6.613575893726223</v>
+        <v>5.563103124905897</v>
       </c>
       <c r="E21">
-        <v>18.73458290452226</v>
+        <v>18.60937988112086</v>
       </c>
       <c r="F21">
-        <v>48.23627844958886</v>
+        <v>39.1529506915451</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>2.097595322666535</v>
+        <v>2.122139288726864</v>
       </c>
       <c r="I21">
-        <v>2.525473947474491</v>
+        <v>2.571367643677583</v>
       </c>
       <c r="J21">
-        <v>4.251792669778333</v>
+        <v>6.072890156015649</v>
       </c>
       <c r="K21">
-        <v>33.60987831418614</v>
+        <v>26.02747256426538</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>19.73719419942671</v>
       </c>
       <c r="M21">
-        <v>14.16691977732156</v>
+        <v>19.18756740670625</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.81862137968341</v>
+        <v>14.46898628980992</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>17.9818768203668</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.58498080645528</v>
+        <v>14.25586859871164</v>
       </c>
       <c r="C22">
-        <v>13.42179784652795</v>
+        <v>15.11996718242666</v>
       </c>
       <c r="D22">
-        <v>6.698691191353809</v>
+        <v>5.585028084217476</v>
       </c>
       <c r="E22">
-        <v>19.43691274929869</v>
+        <v>19.28603211527287</v>
       </c>
       <c r="F22">
-        <v>49.75422965337626</v>
+        <v>40.19516975072546</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2.308722302235529</v>
+        <v>2.3187695851633</v>
       </c>
       <c r="I22">
-        <v>2.682204327830368</v>
+        <v>2.729343539703357</v>
       </c>
       <c r="J22">
-        <v>4.251792669778333</v>
+        <v>6.613666634130162</v>
       </c>
       <c r="K22">
-        <v>34.54049194537869</v>
+        <v>26.53889700922407</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>19.95717451498803</v>
       </c>
       <c r="M22">
-        <v>14.66566481693833</v>
+        <v>19.76701213807985</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.42175109223175</v>
+        <v>14.97184795346223</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>18.58631915848635</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.32092496667393</v>
+        <v>14.00938513743052</v>
       </c>
       <c r="C23">
-        <v>13.14344097495098</v>
+        <v>14.80388494363747</v>
       </c>
       <c r="D23">
-        <v>6.668822608588851</v>
+        <v>5.578300607840853</v>
       </c>
       <c r="E23">
-        <v>19.06803516884288</v>
+        <v>18.93013209296901</v>
       </c>
       <c r="F23">
-        <v>49.056754572895</v>
+        <v>39.72758683545956</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>2.197646216904211</v>
+        <v>2.215145792109591</v>
       </c>
       <c r="I23">
-        <v>2.577632840314184</v>
+        <v>2.639175838738526</v>
       </c>
       <c r="J23">
-        <v>4.251792669778333</v>
+        <v>6.216599296839352</v>
       </c>
       <c r="K23">
-        <v>34.136264255795</v>
+        <v>26.33601535773982</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>19.89154649095966</v>
       </c>
       <c r="M23">
-        <v>14.39875254272324</v>
+        <v>19.51144659986744</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>18.10068425891753</v>
+        <v>14.70317246103074</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>18.26483035994436</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.26902197295273</v>
+        <v>13.02776580636212</v>
       </c>
       <c r="C24">
-        <v>12.08869016581275</v>
+        <v>13.59343618937967</v>
       </c>
       <c r="D24">
-        <v>6.525020500643464</v>
+        <v>5.541415088239543</v>
       </c>
       <c r="E24">
-        <v>17.61049895333958</v>
+        <v>17.52318599702017</v>
       </c>
       <c r="F24">
-        <v>46.15436800051251</v>
+        <v>37.76978253752319</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>1.768209965829627</v>
+        <v>1.814243822465909</v>
       </c>
       <c r="I24">
-        <v>2.815557461026439</v>
+        <v>2.705304519721574</v>
       </c>
       <c r="J24">
-        <v>4.251792669778333</v>
+        <v>5.713894566704329</v>
       </c>
       <c r="K24">
-        <v>32.41229478674654</v>
+        <v>25.43629444273465</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>19.54285127656363</v>
       </c>
       <c r="M24">
-        <v>13.35310794674963</v>
+        <v>18.44991828526839</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.84060866364555</v>
+        <v>13.64851395736519</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>17.00175955453218</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.04114906355979</v>
+        <v>11.88090798973097</v>
       </c>
       <c r="C25">
-        <v>10.87957770714222</v>
+        <v>12.19980852935272</v>
       </c>
       <c r="D25">
-        <v>6.357774096201056</v>
+        <v>5.493828654040613</v>
       </c>
       <c r="E25">
-        <v>15.91829256267807</v>
+        <v>15.88679431212357</v>
       </c>
       <c r="F25">
-        <v>42.84379020090279</v>
+        <v>35.55880741394085</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1.838464912627723</v>
+        <v>1.759866460695857</v>
       </c>
       <c r="I25">
-        <v>3.268101516427187</v>
+        <v>3.090480784698215</v>
       </c>
       <c r="J25">
-        <v>4.251792669778333</v>
+        <v>5.711175322947495</v>
       </c>
       <c r="K25">
-        <v>30.45455796546488</v>
+        <v>24.42504522412932</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>19.12646828126905</v>
       </c>
       <c r="M25">
-        <v>12.14102291779338</v>
+        <v>17.29771837560988</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.38260410040949</v>
+        <v>12.42331588573802</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>15.53863157818055</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
